--- a/华大MCU选型表_V1.0.0.xlsx
+++ b/华大MCU选型表_V1.0.0.xlsx
@@ -2664,7 +2664,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3623,10 +3623,67 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3641,81 +3698,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3725,76 +3707,22 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3815,19 +3743,73 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3842,25 +3824,43 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3886,19 +3886,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>215029</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>181481</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>153697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3917,8 +3917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400736" y="17705293"/>
-          <a:ext cx="11454528" cy="6624864"/>
+          <a:off x="2532528" y="17111380"/>
+          <a:ext cx="9468971" cy="5476493"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4205,7 +4205,7 @@
       <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" bestFit="1" customWidth="1"/>
@@ -4239,7 +4239,7 @@
     <col min="42" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>170</v>
       </c>
@@ -4256,92 +4256,92 @@
       <c r="AN1" s="22"/>
       <c r="AO1" s="22"/>
     </row>
-    <row r="2" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="125" t="s">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="125" t="s">
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="127"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="133"/>
       <c r="AE2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="AF2" s="125" t="s">
+      <c r="AF2" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="141" t="s">
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="AJ2" s="138" t="s">
+      <c r="AJ2" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="140"/>
-    </row>
-    <row r="3" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="130"/>
+    </row>
+    <row r="3" spans="1:41" ht="30.75" thickBot="1">
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="AH3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AI3" s="120"/>
+      <c r="AI3" s="135"/>
       <c r="AJ3" s="12" t="s">
         <v>98</v>
       </c>
@@ -4434,11 +4434,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="124" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4559,9 +4559,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="130"/>
+    <row r="5" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A5" s="138"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
@@ -4680,9 +4680,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
+    <row r="6" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A6" s="138"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
@@ -4801,9 +4801,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128"/>
-      <c r="B7" s="130"/>
+    <row r="7" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A7" s="138"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
@@ -4922,9 +4922,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="130"/>
+    <row r="8" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="5" t="s">
         <v>186</v>
       </c>
@@ -5043,9 +5043,9 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
-      <c r="B9" s="130"/>
+    <row r="9" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A9" s="138"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
@@ -5164,9 +5164,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="131"/>
+    <row r="10" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A10" s="138"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
@@ -5285,9 +5285,9 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129" t="s">
+    <row r="11" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="138"/>
+      <c r="B11" s="124" t="s">
         <v>256</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5408,9 +5408,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
-      <c r="B12" s="130"/>
+    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="138"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
@@ -5529,9 +5529,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
-      <c r="B13" s="130"/>
+    <row r="13" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="138"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
@@ -5650,9 +5650,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="130"/>
+    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="138"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="5" t="s">
         <v>247</v>
       </c>
@@ -5771,9 +5771,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="130"/>
+    <row r="15" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="138"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -5892,9 +5892,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="128"/>
-      <c r="B16" s="130"/>
+    <row r="16" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="138"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6013,9 +6013,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
-      <c r="B17" s="131"/>
+    <row r="17" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="138"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
@@ -6134,9 +6134,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129" t="s">
+    <row r="18" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="124" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -6257,9 +6257,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="128"/>
-      <c r="B19" s="130"/>
+    <row r="19" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -6378,9 +6378,9 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128"/>
-      <c r="B20" s="130"/>
+    <row r="20" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="5" t="s">
         <v>96</v>
       </c>
@@ -6499,9 +6499,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="128"/>
-      <c r="B21" s="130"/>
+    <row r="21" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="138"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
@@ -6620,9 +6620,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
-      <c r="B22" s="130"/>
+    <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="138"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="5" t="s">
         <v>248</v>
       </c>
@@ -6741,9 +6741,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="128"/>
-      <c r="B23" s="130"/>
+    <row r="23" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="138"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
@@ -6862,9 +6862,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="128"/>
-      <c r="B24" s="131"/>
+    <row r="24" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
@@ -6983,9 +6983,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129" t="s">
+    <row r="25" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="138"/>
+      <c r="B25" s="124" t="s">
         <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -7075,7 +7075,7 @@
       <c r="AE25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF25" s="133" t="s">
+      <c r="AF25" s="119" t="s">
         <v>219</v>
       </c>
       <c r="AG25" s="29" t="s">
@@ -7106,9 +7106,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128"/>
-      <c r="B26" s="130"/>
+    <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="138"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="AE26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF26" s="134"/>
+      <c r="AF26" s="120"/>
       <c r="AG26" s="29" t="s">
         <v>50</v>
       </c>
@@ -7225,9 +7225,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="130"/>
+    <row r="27" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="138"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="AE27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF27" s="134"/>
+      <c r="AF27" s="120"/>
       <c r="AG27" s="29" t="s">
         <v>50</v>
       </c>
@@ -7344,9 +7344,9 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
-      <c r="B28" s="130"/>
+    <row r="28" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="138"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
@@ -7434,7 +7434,7 @@
       <c r="AE28" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF28" s="134"/>
+      <c r="AF28" s="120"/>
       <c r="AG28" s="29" t="s">
         <v>50</v>
       </c>
@@ -7463,9 +7463,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
-      <c r="B29" s="130"/>
+    <row r="29" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="138"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="AE29" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF29" s="134"/>
+      <c r="AF29" s="120"/>
       <c r="AG29" s="29" t="s">
         <v>50</v>
       </c>
@@ -7582,9 +7582,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="128"/>
-      <c r="B30" s="130"/>
+    <row r="30" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="138"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="AE30" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF30" s="135"/>
+      <c r="AF30" s="122"/>
       <c r="AG30" s="29" t="s">
         <v>50</v>
       </c>
@@ -7701,9 +7701,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129" t="s">
+    <row r="31" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A31" s="138"/>
+      <c r="B31" s="124" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7793,7 +7793,7 @@
       <c r="AE31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF31" s="133" t="s">
+      <c r="AF31" s="119" t="s">
         <v>219</v>
       </c>
       <c r="AG31" s="6">
@@ -7824,9 +7824,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="128"/>
-      <c r="B32" s="130"/>
+    <row r="32" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A32" s="138"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="5" t="s">
         <v>119</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="AE32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF32" s="134"/>
+      <c r="AF32" s="120"/>
       <c r="AG32" s="6">
         <v>1</v>
       </c>
@@ -7943,9 +7943,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="130"/>
+    <row r="33" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A33" s="138"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="5" t="s">
         <v>120</v>
       </c>
@@ -8033,7 +8033,7 @@
       <c r="AE33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF33" s="134"/>
+      <c r="AF33" s="120"/>
       <c r="AG33" s="6">
         <v>1</v>
       </c>
@@ -8062,9 +8062,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
-      <c r="B34" s="130"/>
+    <row r="34" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A34" s="138"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="5" t="s">
         <v>121</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="AE34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF34" s="134"/>
+      <c r="AF34" s="120"/>
       <c r="AG34" s="6">
         <v>1</v>
       </c>
@@ -8181,9 +8181,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
-      <c r="B35" s="130"/>
+    <row r="35" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A35" s="138"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="5" t="s">
         <v>122</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="AE35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF35" s="134"/>
+      <c r="AF35" s="120"/>
       <c r="AG35" s="6">
         <v>1</v>
       </c>
@@ -8300,9 +8300,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
-      <c r="B36" s="130"/>
+    <row r="36" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A36" s="138"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="5" t="s">
         <v>123</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="AE36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF36" s="134"/>
+      <c r="AF36" s="120"/>
       <c r="AG36" s="6">
         <v>1</v>
       </c>
@@ -8419,9 +8419,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="128"/>
-      <c r="B37" s="131"/>
+    <row r="37" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A37" s="138"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="5" t="s">
         <v>124</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="AE37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF37" s="135"/>
+      <c r="AF37" s="122"/>
       <c r="AG37" s="6">
         <v>1</v>
       </c>
@@ -8538,9 +8538,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129" t="s">
+    <row r="38" spans="1:41" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A38" s="138"/>
+      <c r="B38" s="124" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -8630,7 +8630,7 @@
       <c r="AE38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF38" s="133" t="s">
+      <c r="AF38" s="119" t="s">
         <v>225</v>
       </c>
       <c r="AG38" s="6">
@@ -8661,9 +8661,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="128"/>
-      <c r="B39" s="130"/>
+    <row r="39" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A39" s="138"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="5" t="s">
         <v>111</v>
       </c>
@@ -8751,7 +8751,7 @@
       <c r="AE39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF39" s="134"/>
+      <c r="AF39" s="120"/>
       <c r="AG39" s="6">
         <v>1</v>
       </c>
@@ -8780,9 +8780,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
-      <c r="B40" s="130"/>
+    <row r="40" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="138"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="5" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +8870,7 @@
       <c r="AE40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF40" s="134"/>
+      <c r="AF40" s="120"/>
       <c r="AG40" s="6">
         <v>1</v>
       </c>
@@ -8899,9 +8899,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="128"/>
-      <c r="B41" s="130"/>
+    <row r="41" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A41" s="138"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="5" t="s">
         <v>113</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="AE41" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF41" s="134"/>
+      <c r="AF41" s="120"/>
       <c r="AG41" s="6">
         <v>1</v>
       </c>
@@ -9018,9 +9018,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="128"/>
-      <c r="B42" s="130"/>
+    <row r="42" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A42" s="138"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="5" t="s">
         <v>114</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="AE42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF42" s="134"/>
+      <c r="AF42" s="120"/>
       <c r="AG42" s="6">
         <v>1</v>
       </c>
@@ -9137,9 +9137,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="128"/>
-      <c r="B43" s="130"/>
+    <row r="43" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A43" s="138"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="5" t="s">
         <v>115</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="AE43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF43" s="134"/>
+      <c r="AF43" s="120"/>
       <c r="AG43" s="6">
         <v>1</v>
       </c>
@@ -9256,9 +9256,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="128"/>
-      <c r="B44" s="131"/>
+    <row r="44" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A44" s="138"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="5" t="s">
         <v>116</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="AE44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF44" s="135"/>
+      <c r="AF44" s="122"/>
       <c r="AG44" s="6">
         <v>1</v>
       </c>
@@ -9375,9 +9375,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="128"/>
-      <c r="B45" s="129" t="s">
+    <row r="45" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A45" s="138"/>
+      <c r="B45" s="124" t="s">
         <v>211</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -9431,7 +9431,7 @@
       <c r="S45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T45" s="133" t="s">
+      <c r="T45" s="119" t="s">
         <v>232</v>
       </c>
       <c r="U45" s="6">
@@ -9467,7 +9467,7 @@
       <c r="AE45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF45" s="133" t="s">
+      <c r="AF45" s="119" t="s">
         <v>225</v>
       </c>
       <c r="AG45" s="6">
@@ -9498,9 +9498,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="128"/>
-      <c r="B46" s="130"/>
+    <row r="46" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A46" s="138"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="5" t="s">
         <v>105</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="S46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T46" s="134"/>
+      <c r="T46" s="120"/>
       <c r="U46" s="6">
         <v>1</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="AE46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF46" s="134"/>
+      <c r="AF46" s="120"/>
       <c r="AG46" s="6">
         <v>1</v>
       </c>
@@ -9615,9 +9615,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="128"/>
-      <c r="B47" s="130"/>
+    <row r="47" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A47" s="138"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="5" t="s">
         <v>106</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="S47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T47" s="134"/>
+      <c r="T47" s="120"/>
       <c r="U47" s="6">
         <v>1</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="AE47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF47" s="135"/>
+      <c r="AF47" s="122"/>
       <c r="AG47" s="6">
         <v>1</v>
       </c>
@@ -9732,9 +9732,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="128"/>
-      <c r="B48" s="130"/>
+    <row r="48" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A48" s="138"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="S48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T48" s="134"/>
+      <c r="T48" s="120"/>
       <c r="U48" s="6">
         <v>1</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="AE48" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AF48" s="133" t="s">
+      <c r="AF48" s="119" t="s">
         <v>225</v>
       </c>
       <c r="AG48" s="6">
@@ -9851,9 +9851,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="128"/>
-      <c r="B49" s="130"/>
+    <row r="49" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A49" s="138"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="5" t="s">
         <v>108</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="S49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T49" s="134"/>
+      <c r="T49" s="120"/>
       <c r="U49" s="6">
         <v>1</v>
       </c>
@@ -9939,7 +9939,7 @@
       <c r="AE49" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AF49" s="134"/>
+      <c r="AF49" s="120"/>
       <c r="AG49" s="6">
         <v>1</v>
       </c>
@@ -9968,9 +9968,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="128"/>
-      <c r="B50" s="136"/>
+    <row r="50" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A50" s="138"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="41" t="s">
         <v>109</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="S50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="T50" s="137"/>
+      <c r="T50" s="121"/>
       <c r="U50" s="42">
         <v>1</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="AE50" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AF50" s="137"/>
+      <c r="AF50" s="121"/>
       <c r="AG50" s="42">
         <v>1</v>
       </c>
@@ -10085,11 +10085,11 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="132" t="s">
+    <row r="51" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A51" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="125" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -10210,9 +10210,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="128"/>
-      <c r="B52" s="130"/>
+    <row r="52" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A52" s="138"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
@@ -10331,9 +10331,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="128"/>
-      <c r="B53" s="130"/>
+    <row r="53" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A53" s="138"/>
+      <c r="B53" s="125"/>
       <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
@@ -10452,9 +10452,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="128"/>
-      <c r="B54" s="131"/>
+    <row r="54" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="138"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="5" t="s">
         <v>17</v>
       </c>
@@ -10573,9 +10573,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="128"/>
-      <c r="B55" s="129" t="s">
+    <row r="55" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="138"/>
+      <c r="B55" s="124" t="s">
         <v>195</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -10696,9 +10696,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="128"/>
-      <c r="B56" s="130"/>
+    <row r="56" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="138"/>
+      <c r="B56" s="125"/>
       <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
@@ -10817,9 +10817,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="128"/>
-      <c r="B57" s="130"/>
+    <row r="57" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A57" s="138"/>
+      <c r="B57" s="125"/>
       <c r="C57" s="5" t="s">
         <v>92</v>
       </c>
@@ -10938,9 +10938,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="128"/>
-      <c r="B58" s="130"/>
+    <row r="58" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A58" s="138"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="5" t="s">
         <v>20</v>
       </c>
@@ -11059,9 +11059,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="128"/>
-      <c r="B59" s="130"/>
+    <row r="59" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A59" s="138"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="5" t="s">
         <v>89</v>
       </c>
@@ -11180,9 +11180,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="128"/>
-      <c r="B60" s="131"/>
+    <row r="60" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A60" s="138"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="5" t="s">
         <v>93</v>
       </c>
@@ -11299,9 +11299,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="128"/>
-      <c r="B61" s="129" t="s">
+    <row r="61" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="138"/>
+      <c r="B61" s="124" t="s">
         <v>213</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -11422,9 +11422,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="128"/>
-      <c r="B62" s="130"/>
+    <row r="62" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A62" s="138"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="5" t="s">
         <v>143</v>
       </c>
@@ -11543,9 +11543,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="128"/>
-      <c r="B63" s="130"/>
+    <row r="63" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A63" s="138"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="5" t="s">
         <v>144</v>
       </c>
@@ -11664,9 +11664,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="128"/>
-      <c r="B64" s="130"/>
+    <row r="64" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A64" s="138"/>
+      <c r="B64" s="125"/>
       <c r="C64" s="5" t="s">
         <v>145</v>
       </c>
@@ -11785,9 +11785,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="128"/>
-      <c r="B65" s="130"/>
+    <row r="65" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="138"/>
+      <c r="B65" s="125"/>
       <c r="C65" s="5" t="s">
         <v>146</v>
       </c>
@@ -11906,9 +11906,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="128"/>
-      <c r="B66" s="130"/>
+    <row r="66" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A66" s="138"/>
+      <c r="B66" s="125"/>
       <c r="C66" s="5" t="s">
         <v>147</v>
       </c>
@@ -12027,9 +12027,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="128"/>
-      <c r="B67" s="130"/>
+    <row r="67" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A67" s="138"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="5" t="s">
         <v>148</v>
       </c>
@@ -12148,9 +12148,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="128"/>
-      <c r="B68" s="129" t="s">
+    <row r="68" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A68" s="138"/>
+      <c r="B68" s="124" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -12204,7 +12204,7 @@
       <c r="S68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T68" s="133" t="s">
+      <c r="T68" s="119" t="s">
         <v>232</v>
       </c>
       <c r="U68" s="6">
@@ -12240,7 +12240,7 @@
       <c r="AE68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF68" s="133" t="s">
+      <c r="AF68" s="119" t="s">
         <v>225</v>
       </c>
       <c r="AG68" s="6">
@@ -12271,9 +12271,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="128"/>
-      <c r="B69" s="130"/>
+    <row r="69" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A69" s="138"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="5" t="s">
         <v>102</v>
       </c>
@@ -12325,7 +12325,7 @@
       <c r="S69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T69" s="134"/>
+      <c r="T69" s="120"/>
       <c r="U69" s="6">
         <v>1</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="AE69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF69" s="134"/>
+      <c r="AF69" s="120"/>
       <c r="AG69" s="6">
         <v>1</v>
       </c>
@@ -12388,9 +12388,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="128"/>
-      <c r="B70" s="131"/>
+    <row r="70" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A70" s="138"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="5" t="s">
         <v>103</v>
       </c>
@@ -12442,7 +12442,7 @@
       <c r="S70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T70" s="135"/>
+      <c r="T70" s="122"/>
       <c r="U70" s="6">
         <v>1</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="AE70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF70" s="135"/>
+      <c r="AF70" s="122"/>
       <c r="AG70" s="6">
         <v>1</v>
       </c>
@@ -12505,9 +12505,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="128"/>
-      <c r="B71" s="129" t="s">
+    <row r="71" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A71" s="138"/>
+      <c r="B71" s="124" t="s">
         <v>216</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -12597,7 +12597,7 @@
       <c r="AE71" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF71" s="133" t="s">
+      <c r="AF71" s="119" t="s">
         <v>219</v>
       </c>
       <c r="AG71" s="6">
@@ -12628,9 +12628,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="128"/>
-      <c r="B72" s="130"/>
+    <row r="72" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A72" s="138"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="5" t="s">
         <v>126</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="AE72" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF72" s="134"/>
+      <c r="AF72" s="120"/>
       <c r="AG72" s="6">
         <v>1</v>
       </c>
@@ -12747,9 +12747,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="128"/>
-      <c r="B73" s="130"/>
+    <row r="73" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A73" s="138"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="5" t="s">
         <v>127</v>
       </c>
@@ -12837,7 +12837,7 @@
       <c r="AE73" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF73" s="134"/>
+      <c r="AF73" s="120"/>
       <c r="AG73" s="6">
         <v>1</v>
       </c>
@@ -12866,9 +12866,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="128"/>
-      <c r="B74" s="130"/>
+    <row r="74" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A74" s="138"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="5" t="s">
         <v>128</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="AE74" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF74" s="134"/>
+      <c r="AF74" s="120"/>
       <c r="AG74" s="6">
         <v>1</v>
       </c>
@@ -12985,9 +12985,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="128"/>
-      <c r="B75" s="130"/>
+    <row r="75" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A75" s="138"/>
+      <c r="B75" s="125"/>
       <c r="C75" s="5" t="s">
         <v>129</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="AE75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF75" s="134"/>
+      <c r="AF75" s="120"/>
       <c r="AG75" s="6">
         <v>1</v>
       </c>
@@ -13104,9 +13104,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="128"/>
-      <c r="B76" s="130"/>
+    <row r="76" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A76" s="138"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="5" t="s">
         <v>130</v>
       </c>
@@ -13194,7 +13194,7 @@
       <c r="AE76" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF76" s="134"/>
+      <c r="AF76" s="120"/>
       <c r="AG76" s="6">
         <v>1</v>
       </c>
@@ -13223,9 +13223,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="128"/>
-      <c r="B77" s="131"/>
+    <row r="77" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A77" s="138"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="5" t="s">
         <v>131</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="AE77" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF77" s="135"/>
+      <c r="AF77" s="122"/>
       <c r="AG77" s="6">
         <v>1</v>
       </c>
@@ -13342,9 +13342,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="128"/>
-      <c r="B78" s="129" t="s">
+    <row r="78" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A78" s="138"/>
+      <c r="B78" s="124" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -13434,7 +13434,7 @@
       <c r="AE78" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF78" s="133" t="s">
+      <c r="AF78" s="119" t="s">
         <v>225</v>
       </c>
       <c r="AG78" s="6">
@@ -13465,9 +13465,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="128"/>
-      <c r="B79" s="130"/>
+    <row r="79" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A79" s="138"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="5" t="s">
         <v>133</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="AE79" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF79" s="134"/>
+      <c r="AF79" s="120"/>
       <c r="AG79" s="6">
         <v>1</v>
       </c>
@@ -13584,9 +13584,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="128"/>
-      <c r="B80" s="130"/>
+    <row r="80" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A80" s="138"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="5" t="s">
         <v>134</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="AE80" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF80" s="134"/>
+      <c r="AF80" s="120"/>
       <c r="AG80" s="6">
         <v>1</v>
       </c>
@@ -13703,9 +13703,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="128"/>
-      <c r="B81" s="130"/>
+    <row r="81" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A81" s="138"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="5" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +13793,7 @@
       <c r="AE81" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF81" s="134"/>
+      <c r="AF81" s="120"/>
       <c r="AG81" s="6">
         <v>1</v>
       </c>
@@ -13822,9 +13822,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="128"/>
-      <c r="B82" s="130"/>
+    <row r="82" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A82" s="138"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="5" t="s">
         <v>136</v>
       </c>
@@ -13912,7 +13912,7 @@
       <c r="AE82" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF82" s="134"/>
+      <c r="AF82" s="120"/>
       <c r="AG82" s="6">
         <v>1</v>
       </c>
@@ -13941,9 +13941,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="128"/>
-      <c r="B83" s="130"/>
+    <row r="83" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A83" s="138"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="5" t="s">
         <v>137</v>
       </c>
@@ -14031,7 +14031,7 @@
       <c r="AE83" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF83" s="134"/>
+      <c r="AF83" s="120"/>
       <c r="AG83" s="6">
         <v>1</v>
       </c>
@@ -14060,9 +14060,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="128"/>
-      <c r="B84" s="131"/>
+    <row r="84" spans="1:41" ht="17.25" thickBot="1">
+      <c r="A84" s="138"/>
+      <c r="B84" s="127"/>
       <c r="C84" s="5" t="s">
         <v>138</v>
       </c>
@@ -14150,7 +14150,7 @@
       <c r="AE84" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF84" s="135"/>
+      <c r="AF84" s="122"/>
       <c r="AG84" s="6">
         <v>1</v>
       </c>
@@ -14179,9 +14179,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="128"/>
-      <c r="B85" s="129" t="s">
+    <row r="85" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A85" s="138"/>
+      <c r="B85" s="124" t="s">
         <v>214</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -14302,9 +14302,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="128"/>
-      <c r="B86" s="130"/>
+    <row r="86" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A86" s="138"/>
+      <c r="B86" s="125"/>
       <c r="C86" s="19" t="s">
         <v>150</v>
       </c>
@@ -14423,9 +14423,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="128"/>
-      <c r="B87" s="130"/>
+    <row r="87" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A87" s="138"/>
+      <c r="B87" s="125"/>
       <c r="C87" s="19" t="s">
         <v>151</v>
       </c>
@@ -14544,9 +14544,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="128"/>
-      <c r="B88" s="131"/>
+    <row r="88" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A88" s="138"/>
+      <c r="B88" s="127"/>
       <c r="C88" s="19" t="s">
         <v>152</v>
       </c>
@@ -14665,9 +14665,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="128"/>
-      <c r="B89" s="129" t="s">
+    <row r="89" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A89" s="138"/>
+      <c r="B89" s="124" t="s">
         <v>218</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -14788,9 +14788,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="128"/>
-      <c r="B90" s="130"/>
+    <row r="90" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A90" s="138"/>
+      <c r="B90" s="125"/>
       <c r="C90" s="5" t="s">
         <v>6</v>
       </c>
@@ -14909,9 +14909,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="128"/>
-      <c r="B91" s="130"/>
+    <row r="91" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A91" s="138"/>
+      <c r="B91" s="125"/>
       <c r="C91" s="24" t="s">
         <v>7</v>
       </c>
@@ -15030,9 +15030,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="128"/>
-      <c r="B92" s="143"/>
+    <row r="92" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A92" s="138"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="24" t="s">
         <v>8</v>
       </c>
@@ -15151,9 +15151,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="128"/>
-      <c r="B93" s="142" t="s">
+    <row r="93" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A93" s="138"/>
+      <c r="B93" s="123" t="s">
         <v>253</v>
       </c>
       <c r="C93" s="24" t="s">
@@ -15207,7 +15207,7 @@
       <c r="S93" s="6">
         <v>1</v>
       </c>
-      <c r="T93" s="133" t="s">
+      <c r="T93" s="119" t="s">
         <v>257</v>
       </c>
       <c r="U93" s="6">
@@ -15274,9 +15274,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="128"/>
-      <c r="B94" s="142"/>
+    <row r="94" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A94" s="138"/>
+      <c r="B94" s="123"/>
       <c r="C94" s="24" t="s">
         <v>25</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="S94" s="6">
         <v>1</v>
       </c>
-      <c r="T94" s="134"/>
+      <c r="T94" s="120"/>
       <c r="U94" s="6">
         <v>1</v>
       </c>
@@ -15393,9 +15393,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="128"/>
-      <c r="B95" s="142"/>
+    <row r="95" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A95" s="138"/>
+      <c r="B95" s="123"/>
       <c r="C95" s="24" t="s">
         <v>26</v>
       </c>
@@ -15447,7 +15447,7 @@
       <c r="S95" s="6">
         <v>1</v>
       </c>
-      <c r="T95" s="134"/>
+      <c r="T95" s="120"/>
       <c r="U95" s="6">
         <v>1</v>
       </c>
@@ -15512,9 +15512,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="128"/>
-      <c r="B96" s="142"/>
+    <row r="96" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A96" s="138"/>
+      <c r="B96" s="123"/>
       <c r="C96" s="24" t="s">
         <v>27</v>
       </c>
@@ -15566,7 +15566,7 @@
       <c r="S96" s="6">
         <v>1</v>
       </c>
-      <c r="T96" s="134"/>
+      <c r="T96" s="120"/>
       <c r="U96" s="6">
         <v>1</v>
       </c>
@@ -15631,9 +15631,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="128"/>
-      <c r="B97" s="142"/>
+    <row r="97" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="A97" s="138"/>
+      <c r="B97" s="123"/>
       <c r="C97" s="7" t="s">
         <v>28</v>
       </c>
@@ -15685,7 +15685,7 @@
       <c r="S97" s="6">
         <v>1</v>
       </c>
-      <c r="T97" s="135"/>
+      <c r="T97" s="122"/>
       <c r="U97" s="6">
         <v>1</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41">
       <c r="A98" s="34"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -15758,7 +15758,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41">
       <c r="A99" s="35"/>
       <c r="B99" s="35"/>
       <c r="D99" s="4"/>
@@ -15767,714 +15767,714 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41">
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:8">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:8">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:8">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:8">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:8">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:8">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:8">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:8">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:8">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:8">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:8">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:8">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:8">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:8">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:8">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:8">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:8">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:8">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:8">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:8">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:8">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:8">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:8">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:8">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:8">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:8">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:8">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:8">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:8">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:8">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:8">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:8">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:8">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:8">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:8">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:8">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:8">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:8">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:8">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:8">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:8">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:8">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:8">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:8">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:8">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:8">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:8">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:8">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:8">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:8">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:8">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:8">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:8">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:8">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:8">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:8">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:8">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:8">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:8">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:8">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:8">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:8">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:8">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:8">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:8">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:8">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:8">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:8">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:8">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:8">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:8">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:8">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:8">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:8">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:8">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:8">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:8">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:8">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:8">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:8">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:8">
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:8">
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:8">
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:8">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:8">
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:8">
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:8">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:8">
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:8">
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -16485,29 +16485,11 @@
   <sheetProtection algorithmName="SHA-512" hashValue="Wbqm61aM/mTQ3dOyzftXkU93cAgStSBsFA8qEjZzDES5lV5nq6wsJzBzU/PN0tSR9EGqrqa17BhljMwDDhxAOQ==" saltValue="CsqII684U3DvG5cPocUOMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <autoFilter ref="C3:AO97"/>
   <mergeCells count="44">
-    <mergeCell ref="T45:T50"/>
-    <mergeCell ref="AF78:AF84"/>
-    <mergeCell ref="AF71:AF77"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:A50"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="A51:A97"/>
     <mergeCell ref="AF25:AF30"/>
     <mergeCell ref="B4:B10"/>
@@ -16524,11 +16506,29 @@
     <mergeCell ref="AF48:AF50"/>
     <mergeCell ref="T93:T97"/>
     <mergeCell ref="T68:T70"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A4:A50"/>
-    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="T45:T50"/>
+    <mergeCell ref="AF78:AF84"/>
+    <mergeCell ref="AF71:AF77"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B61:B67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16541,13 +16541,13 @@
   <dimension ref="A1:AQ180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W94" sqref="W94"/>
+      <selection pane="bottomRight" activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" bestFit="1" customWidth="1"/>
@@ -16583,7 +16583,7 @@
     <col min="45" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>170</v>
       </c>
@@ -16600,96 +16600,96 @@
       <c r="AP1" s="22"/>
       <c r="AQ1" s="22"/>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="125" t="s">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="125" t="s">
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="127"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="133"/>
       <c r="AE2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="AF2" s="149" t="s">
+      <c r="AF2" s="162" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="149" t="s">
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="141" t="s">
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="AL2" s="138" t="s">
+      <c r="AL2" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="140"/>
-    </row>
-    <row r="3" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="130"/>
+    </row>
+    <row r="3" spans="1:43" ht="30.75" thickBot="1">
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="AJ3" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="AK3" s="120"/>
+      <c r="AK3" s="135"/>
       <c r="AL3" s="12" t="s">
         <v>98</v>
       </c>
@@ -16788,11 +16788,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+    <row r="4" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="177" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="49" t="s">
@@ -16891,10 +16891,10 @@
       <c r="AH4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="183" t="s">
+      <c r="AI4" s="150" t="s">
         <v>272</v>
       </c>
-      <c r="AJ4" s="192" t="s">
+      <c r="AJ4" s="163" t="s">
         <v>270</v>
       </c>
       <c r="AK4" s="51" t="s">
@@ -16919,9 +16919,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166"/>
+    <row r="5" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="190"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
@@ -17018,8 +17018,8 @@
       <c r="AH5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="193"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="164"/>
       <c r="AK5" s="51" t="s">
         <v>252</v>
       </c>
@@ -17042,9 +17042,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
+    <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="190"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="49" t="s">
         <v>11</v>
       </c>
@@ -17141,8 +17141,8 @@
       <c r="AH6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="193"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="164"/>
       <c r="AK6" s="51" t="s">
         <v>252</v>
       </c>
@@ -17165,9 +17165,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="166"/>
+    <row r="7" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="190"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="49" t="s">
         <v>247</v>
       </c>
@@ -17264,8 +17264,8 @@
       <c r="AH7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI7" s="184"/>
-      <c r="AJ7" s="193"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="164"/>
       <c r="AK7" s="51" t="s">
         <v>252</v>
       </c>
@@ -17288,9 +17288,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="166"/>
+    <row r="8" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="190"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="49" t="s">
         <v>12</v>
       </c>
@@ -17387,8 +17387,8 @@
       <c r="AH8" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI8" s="184"/>
-      <c r="AJ8" s="193"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="164"/>
       <c r="AK8" s="51" t="s">
         <v>252</v>
       </c>
@@ -17411,9 +17411,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
+    <row r="9" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="190"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="49" t="s">
         <v>13</v>
       </c>
@@ -17510,8 +17510,8 @@
       <c r="AH9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI9" s="184"/>
-      <c r="AJ9" s="193"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="164"/>
       <c r="AK9" s="51" t="s">
         <v>252</v>
       </c>
@@ -17534,9 +17534,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="164"/>
-      <c r="B10" s="167"/>
+    <row r="10" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="190"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="49" t="s">
         <v>88</v>
       </c>
@@ -17633,8 +17633,8 @@
       <c r="AH10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI10" s="185"/>
-      <c r="AJ10" s="194"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="165"/>
       <c r="AK10" s="51" t="s">
         <v>252</v>
       </c>
@@ -17657,9 +17657,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164"/>
-      <c r="B11" s="168" t="s">
+    <row r="11" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="190"/>
+      <c r="B11" s="186" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -17758,10 +17758,10 @@
       <c r="AH11" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI11" s="180" t="s">
+      <c r="AI11" s="156" t="s">
         <v>283</v>
       </c>
-      <c r="AJ11" s="195" t="s">
+      <c r="AJ11" s="169" t="s">
         <v>284</v>
       </c>
       <c r="AK11" s="91" t="s">
@@ -17786,9 +17786,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="164"/>
-      <c r="B12" s="169"/>
+    <row r="12" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="190"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="88" t="s">
         <v>97</v>
       </c>
@@ -17885,8 +17885,8 @@
       <c r="AH12" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI12" s="181"/>
-      <c r="AJ12" s="196"/>
+      <c r="AI12" s="157"/>
+      <c r="AJ12" s="170"/>
       <c r="AK12" s="91" t="s">
         <v>252</v>
       </c>
@@ -17909,9 +17909,9 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="169"/>
+    <row r="13" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="190"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="88" t="s">
         <v>96</v>
       </c>
@@ -18008,8 +18008,8 @@
       <c r="AH13" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI13" s="181"/>
-      <c r="AJ13" s="196"/>
+      <c r="AI13" s="157"/>
+      <c r="AJ13" s="170"/>
       <c r="AK13" s="91" t="s">
         <v>252</v>
       </c>
@@ -18032,9 +18032,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="164"/>
-      <c r="B14" s="169"/>
+    <row r="14" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="190"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="88" t="s">
         <v>22</v>
       </c>
@@ -18131,8 +18131,8 @@
       <c r="AH14" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI14" s="181"/>
-      <c r="AJ14" s="196"/>
+      <c r="AI14" s="157"/>
+      <c r="AJ14" s="170"/>
       <c r="AK14" s="91" t="s">
         <v>252</v>
       </c>
@@ -18155,9 +18155,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="164"/>
-      <c r="B15" s="169"/>
+    <row r="15" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="190"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="88" t="s">
         <v>248</v>
       </c>
@@ -18254,8 +18254,8 @@
       <c r="AH15" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI15" s="181"/>
-      <c r="AJ15" s="196"/>
+      <c r="AI15" s="157"/>
+      <c r="AJ15" s="170"/>
       <c r="AK15" s="91" t="s">
         <v>252</v>
       </c>
@@ -18278,9 +18278,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="164"/>
-      <c r="B16" s="169"/>
+    <row r="16" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="190"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="88" t="s">
         <v>23</v>
       </c>
@@ -18377,8 +18377,8 @@
       <c r="AH16" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="181"/>
-      <c r="AJ16" s="196"/>
+      <c r="AI16" s="157"/>
+      <c r="AJ16" s="170"/>
       <c r="AK16" s="91" t="s">
         <v>252</v>
       </c>
@@ -18401,9 +18401,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="170"/>
+    <row r="17" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="190"/>
+      <c r="B17" s="188"/>
       <c r="C17" s="88" t="s">
         <v>24</v>
       </c>
@@ -18500,8 +18500,8 @@
       <c r="AH17" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI17" s="182"/>
-      <c r="AJ17" s="197"/>
+      <c r="AI17" s="158"/>
+      <c r="AJ17" s="171"/>
       <c r="AK17" s="91" t="s">
         <v>252</v>
       </c>
@@ -18524,9 +18524,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="171" t="s">
+    <row r="18" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A18" s="190"/>
+      <c r="B18" s="180" t="s">
         <v>212</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -18616,7 +18616,7 @@
       <c r="AE18" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="AF18" s="174" t="s">
+      <c r="AF18" s="159" t="s">
         <v>219</v>
       </c>
       <c r="AG18" s="55">
@@ -18625,10 +18625,10 @@
       <c r="AH18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI18" s="174" t="s">
+      <c r="AI18" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="AJ18" s="174" t="s">
+      <c r="AJ18" s="159" t="s">
         <v>273</v>
       </c>
       <c r="AK18" s="58" t="s">
@@ -18653,9 +18653,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="164"/>
-      <c r="B19" s="172"/>
+    <row r="19" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A19" s="190"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="54" t="s">
         <v>119</v>
       </c>
@@ -18743,15 +18743,15 @@
       <c r="AE19" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AF19" s="175"/>
+      <c r="AF19" s="160"/>
       <c r="AG19" s="55">
         <v>1</v>
       </c>
       <c r="AH19" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI19" s="175"/>
-      <c r="AJ19" s="175"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
       <c r="AK19" s="58" t="s">
         <v>252</v>
       </c>
@@ -18774,9 +18774,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="172"/>
+    <row r="20" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A20" s="190"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="54" t="s">
         <v>120</v>
       </c>
@@ -18864,15 +18864,15 @@
       <c r="AE20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AF20" s="175"/>
+      <c r="AF20" s="160"/>
       <c r="AG20" s="55">
         <v>1</v>
       </c>
       <c r="AH20" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI20" s="175"/>
-      <c r="AJ20" s="175"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
       <c r="AK20" s="58" t="s">
         <v>252</v>
       </c>
@@ -18895,9 +18895,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="164"/>
-      <c r="B21" s="172"/>
+    <row r="21" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A21" s="190"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="54" t="s">
         <v>121</v>
       </c>
@@ -18985,15 +18985,15 @@
       <c r="AE21" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AF21" s="175"/>
+      <c r="AF21" s="160"/>
       <c r="AG21" s="55">
         <v>1</v>
       </c>
       <c r="AH21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI21" s="175"/>
-      <c r="AJ21" s="175"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
       <c r="AK21" s="58" t="s">
         <v>252</v>
       </c>
@@ -19016,9 +19016,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
-      <c r="B22" s="172"/>
+    <row r="22" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A22" s="190"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="54" t="s">
         <v>122</v>
       </c>
@@ -19106,15 +19106,15 @@
       <c r="AE22" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AF22" s="175"/>
+      <c r="AF22" s="160"/>
       <c r="AG22" s="55">
         <v>1</v>
       </c>
       <c r="AH22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI22" s="175"/>
-      <c r="AJ22" s="175"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
       <c r="AK22" s="58" t="s">
         <v>252</v>
       </c>
@@ -19137,9 +19137,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="172"/>
+    <row r="23" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A23" s="190"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="54" t="s">
         <v>123</v>
       </c>
@@ -19227,15 +19227,15 @@
       <c r="AE23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="175"/>
+      <c r="AF23" s="160"/>
       <c r="AG23" s="55">
         <v>1</v>
       </c>
       <c r="AH23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI23" s="175"/>
-      <c r="AJ23" s="175"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
       <c r="AK23" s="58" t="s">
         <v>252</v>
       </c>
@@ -19258,9 +19258,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="173"/>
+    <row r="24" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="54" t="s">
         <v>124</v>
       </c>
@@ -19348,15 +19348,15 @@
       <c r="AE24" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AF24" s="176"/>
+      <c r="AF24" s="161"/>
       <c r="AG24" s="55">
         <v>1</v>
       </c>
       <c r="AH24" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI24" s="176"/>
-      <c r="AJ24" s="176"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
       <c r="AK24" s="58" t="s">
         <v>252</v>
       </c>
@@ -19379,9 +19379,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="164"/>
-      <c r="B25" s="153" t="s">
+    <row r="25" spans="1:43" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A25" s="190"/>
+      <c r="B25" s="194" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="61" t="s">
@@ -19471,7 +19471,7 @@
       <c r="AE25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="AF25" s="144" t="s">
+      <c r="AF25" s="172" t="s">
         <v>219</v>
       </c>
       <c r="AG25" s="62">
@@ -19480,10 +19480,10 @@
       <c r="AH25" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI25" s="144" t="s">
+      <c r="AI25" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="AJ25" s="144" t="s">
+      <c r="AJ25" s="172" t="s">
         <v>273</v>
       </c>
       <c r="AK25" s="65" t="s">
@@ -19508,9 +19508,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
-      <c r="B26" s="154"/>
+    <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A26" s="190"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="61" t="s">
         <v>111</v>
       </c>
@@ -19598,15 +19598,15 @@
       <c r="AE26" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="AF26" s="145"/>
+      <c r="AF26" s="148"/>
       <c r="AG26" s="62">
         <v>1</v>
       </c>
       <c r="AH26" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="148"/>
       <c r="AK26" s="65" t="s">
         <v>252</v>
       </c>
@@ -19629,9 +19629,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="154"/>
+    <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A27" s="190"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="61" t="s">
         <v>112</v>
       </c>
@@ -19719,15 +19719,15 @@
       <c r="AE27" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AF27" s="145"/>
+      <c r="AF27" s="148"/>
       <c r="AG27" s="62">
         <v>1</v>
       </c>
       <c r="AH27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
       <c r="AK27" s="65" t="s">
         <v>252</v>
       </c>
@@ -19750,9 +19750,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="154"/>
+    <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="190"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="61" t="s">
         <v>113</v>
       </c>
@@ -19840,15 +19840,15 @@
       <c r="AE28" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AF28" s="145"/>
+      <c r="AF28" s="148"/>
       <c r="AG28" s="62">
         <v>1</v>
       </c>
       <c r="AH28" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
       <c r="AK28" s="65" t="s">
         <v>252</v>
       </c>
@@ -19871,9 +19871,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="154"/>
+    <row r="29" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A29" s="190"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="61" t="s">
         <v>114</v>
       </c>
@@ -19961,15 +19961,15 @@
       <c r="AE29" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="AF29" s="145"/>
+      <c r="AF29" s="148"/>
       <c r="AG29" s="62">
         <v>1</v>
       </c>
       <c r="AH29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
       <c r="AK29" s="65" t="s">
         <v>252</v>
       </c>
@@ -19992,9 +19992,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="164"/>
-      <c r="B30" s="154"/>
+    <row r="30" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A30" s="190"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="61" t="s">
         <v>115</v>
       </c>
@@ -20082,15 +20082,15 @@
       <c r="AE30" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AF30" s="145"/>
+      <c r="AF30" s="148"/>
       <c r="AG30" s="62">
         <v>1</v>
       </c>
       <c r="AH30" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
       <c r="AK30" s="65" t="s">
         <v>252</v>
       </c>
@@ -20113,9 +20113,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
-      <c r="B31" s="155"/>
+    <row r="31" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A31" s="190"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="61" t="s">
         <v>116</v>
       </c>
@@ -20203,15 +20203,15 @@
       <c r="AE31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AF31" s="146"/>
+      <c r="AF31" s="149"/>
       <c r="AG31" s="62">
         <v>1</v>
       </c>
       <c r="AH31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI31" s="146"/>
-      <c r="AJ31" s="146"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
       <c r="AK31" s="65" t="s">
         <v>252</v>
       </c>
@@ -20234,9 +20234,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="156" t="s">
+    <row r="32" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A32" s="190"/>
+      <c r="B32" s="195" t="s">
         <v>291</v>
       </c>
       <c r="C32" s="68" t="s">
@@ -20290,7 +20290,7 @@
       <c r="S32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T32" s="159" t="s">
+      <c r="T32" s="166" t="s">
         <v>232</v>
       </c>
       <c r="U32" s="69">
@@ -20326,7 +20326,7 @@
       <c r="AE32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF32" s="159" t="s">
+      <c r="AF32" s="166" t="s">
         <v>219</v>
       </c>
       <c r="AG32" s="69">
@@ -20335,10 +20335,10 @@
       <c r="AH32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI32" s="159" t="s">
+      <c r="AI32" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="AJ32" s="159" t="s">
+      <c r="AJ32" s="166" t="s">
         <v>299</v>
       </c>
       <c r="AK32" s="72" t="s">
@@ -20363,9 +20363,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="164"/>
-      <c r="B33" s="157"/>
+    <row r="33" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A33" s="190"/>
+      <c r="B33" s="196"/>
       <c r="C33" s="68" t="s">
         <v>105</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="S33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T33" s="160"/>
+      <c r="T33" s="167"/>
       <c r="U33" s="69">
         <v>1</v>
       </c>
@@ -20451,15 +20451,15 @@
       <c r="AE33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF33" s="160"/>
+      <c r="AF33" s="167"/>
       <c r="AG33" s="69">
         <v>1</v>
       </c>
       <c r="AH33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
+      <c r="AI33" s="167"/>
+      <c r="AJ33" s="167"/>
       <c r="AK33" s="72" t="s">
         <v>252</v>
       </c>
@@ -20482,9 +20482,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
-      <c r="B34" s="157"/>
+    <row r="34" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A34" s="190"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="68" t="s">
         <v>106</v>
       </c>
@@ -20536,7 +20536,7 @@
       <c r="S34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T34" s="160"/>
+      <c r="T34" s="167"/>
       <c r="U34" s="69">
         <v>1</v>
       </c>
@@ -20570,15 +20570,15 @@
       <c r="AE34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF34" s="162"/>
+      <c r="AF34" s="198"/>
       <c r="AG34" s="69">
         <v>1</v>
       </c>
       <c r="AH34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
+      <c r="AI34" s="167"/>
+      <c r="AJ34" s="167"/>
       <c r="AK34" s="72" t="s">
         <v>252</v>
       </c>
@@ -20601,9 +20601,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="164"/>
-      <c r="B35" s="157"/>
+    <row r="35" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A35" s="190"/>
+      <c r="B35" s="196"/>
       <c r="C35" s="68" t="s">
         <v>107</v>
       </c>
@@ -20655,7 +20655,7 @@
       <c r="S35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T35" s="160"/>
+      <c r="T35" s="167"/>
       <c r="U35" s="69">
         <v>1</v>
       </c>
@@ -20689,7 +20689,7 @@
       <c r="AE35" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="AF35" s="159" t="s">
+      <c r="AF35" s="166" t="s">
         <v>219</v>
       </c>
       <c r="AG35" s="69">
@@ -20698,8 +20698,8 @@
       <c r="AH35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI35" s="160"/>
-      <c r="AJ35" s="160"/>
+      <c r="AI35" s="167"/>
+      <c r="AJ35" s="167"/>
       <c r="AK35" s="72" t="s">
         <v>252</v>
       </c>
@@ -20722,9 +20722,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="164"/>
-      <c r="B36" s="157"/>
+    <row r="36" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A36" s="190"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="68" t="s">
         <v>108</v>
       </c>
@@ -20776,7 +20776,7 @@
       <c r="S36" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T36" s="160"/>
+      <c r="T36" s="167"/>
       <c r="U36" s="69">
         <v>1</v>
       </c>
@@ -20810,15 +20810,15 @@
       <c r="AE36" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="AF36" s="160"/>
+      <c r="AF36" s="167"/>
       <c r="AG36" s="69">
         <v>1</v>
       </c>
       <c r="AH36" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI36" s="160"/>
-      <c r="AJ36" s="160"/>
+      <c r="AI36" s="167"/>
+      <c r="AJ36" s="167"/>
       <c r="AK36" s="72" t="s">
         <v>252</v>
       </c>
@@ -20841,9 +20841,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="164"/>
-      <c r="B37" s="158"/>
+    <row r="37" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A37" s="190"/>
+      <c r="B37" s="197"/>
       <c r="C37" s="75" t="s">
         <v>109</v>
       </c>
@@ -20895,7 +20895,7 @@
       <c r="S37" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="T37" s="161"/>
+      <c r="T37" s="168"/>
       <c r="U37" s="76">
         <v>1</v>
       </c>
@@ -20929,15 +20929,15 @@
       <c r="AE37" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="AF37" s="161"/>
+      <c r="AF37" s="168"/>
       <c r="AG37" s="76">
         <v>1</v>
       </c>
       <c r="AH37" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AI37" s="161"/>
-      <c r="AJ37" s="161"/>
+      <c r="AI37" s="168"/>
+      <c r="AJ37" s="168"/>
       <c r="AK37" s="78" t="s">
         <v>252</v>
       </c>
@@ -20960,11 +20960,11 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="186" t="s">
+    <row r="38" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="154" t="s">
+      <c r="B38" s="175" t="s">
         <v>295</v>
       </c>
       <c r="C38" s="104" t="s">
@@ -21063,10 +21063,10 @@
       <c r="AH38" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AI38" s="198" t="s">
+      <c r="AI38" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="AJ38" s="198" t="s">
+      <c r="AJ38" s="147" t="s">
         <v>274</v>
       </c>
       <c r="AK38" s="105" t="s">
@@ -21091,9 +21091,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="187"/>
-      <c r="B39" s="154"/>
+    <row r="39" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="174"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="61" t="s">
         <v>15</v>
       </c>
@@ -21190,8 +21190,8 @@
       <c r="AH39" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI39" s="145"/>
-      <c r="AJ39" s="145"/>
+      <c r="AI39" s="148"/>
+      <c r="AJ39" s="148"/>
       <c r="AK39" s="65" t="s">
         <v>252</v>
       </c>
@@ -21214,9 +21214,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="187"/>
-      <c r="B40" s="154"/>
+    <row r="40" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="174"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="61" t="s">
         <v>16</v>
       </c>
@@ -21313,8 +21313,8 @@
       <c r="AH40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI40" s="145"/>
-      <c r="AJ40" s="145"/>
+      <c r="AI40" s="148"/>
+      <c r="AJ40" s="148"/>
       <c r="AK40" s="65" t="s">
         <v>252</v>
       </c>
@@ -21337,9 +21337,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="187"/>
-      <c r="B41" s="155"/>
+    <row r="41" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="174"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="61" t="s">
         <v>17</v>
       </c>
@@ -21436,8 +21436,8 @@
       <c r="AH41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI41" s="146"/>
-      <c r="AJ41" s="146"/>
+      <c r="AI41" s="149"/>
+      <c r="AJ41" s="149"/>
       <c r="AK41" s="65" t="s">
         <v>252</v>
       </c>
@@ -21460,9 +21460,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="187"/>
-      <c r="B42" s="165" t="s">
+    <row r="42" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="174"/>
+      <c r="B42" s="177" t="s">
         <v>293</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -21561,10 +21561,10 @@
       <c r="AH42" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI42" s="183" t="s">
+      <c r="AI42" s="150" t="s">
         <v>271</v>
       </c>
-      <c r="AJ42" s="183" t="s">
+      <c r="AJ42" s="150" t="s">
         <v>274</v>
       </c>
       <c r="AK42" s="51" t="s">
@@ -21589,9 +21589,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
-      <c r="B43" s="166"/>
+    <row r="43" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A43" s="174"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="49" t="s">
         <v>19</v>
       </c>
@@ -21688,8 +21688,8 @@
       <c r="AH43" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI43" s="184"/>
-      <c r="AJ43" s="184"/>
+      <c r="AI43" s="151"/>
+      <c r="AJ43" s="151"/>
       <c r="AK43" s="51" t="s">
         <v>252</v>
       </c>
@@ -21712,9 +21712,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="187"/>
-      <c r="B44" s="166"/>
+    <row r="44" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A44" s="174"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="49" t="s">
         <v>92</v>
       </c>
@@ -21811,8 +21811,8 @@
       <c r="AH44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI44" s="184"/>
-      <c r="AJ44" s="184"/>
+      <c r="AI44" s="151"/>
+      <c r="AJ44" s="151"/>
       <c r="AK44" s="51" t="s">
         <v>252</v>
       </c>
@@ -21835,9 +21835,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="187"/>
-      <c r="B45" s="166"/>
+    <row r="45" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A45" s="174"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="49" t="s">
         <v>20</v>
       </c>
@@ -21934,8 +21934,8 @@
       <c r="AH45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI45" s="184"/>
-      <c r="AJ45" s="184"/>
+      <c r="AI45" s="151"/>
+      <c r="AJ45" s="151"/>
       <c r="AK45" s="51" t="s">
         <v>252</v>
       </c>
@@ -21958,9 +21958,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="187"/>
-      <c r="B46" s="166"/>
+    <row r="46" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A46" s="174"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="49" t="s">
         <v>89</v>
       </c>
@@ -22057,8 +22057,8 @@
       <c r="AH46" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI46" s="184"/>
-      <c r="AJ46" s="184"/>
+      <c r="AI46" s="151"/>
+      <c r="AJ46" s="151"/>
       <c r="AK46" s="51" t="s">
         <v>252</v>
       </c>
@@ -22081,9 +22081,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="187"/>
-      <c r="B47" s="167"/>
+    <row r="47" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="174"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="49" t="s">
         <v>93</v>
       </c>
@@ -22178,8 +22178,8 @@
       <c r="AH47" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI47" s="185"/>
-      <c r="AJ47" s="185"/>
+      <c r="AI47" s="152"/>
+      <c r="AJ47" s="152"/>
       <c r="AK47" s="51" t="s">
         <v>252</v>
       </c>
@@ -22202,9 +22202,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="187"/>
-      <c r="B48" s="171" t="s">
+    <row r="48" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="174"/>
+      <c r="B48" s="180" t="s">
         <v>294</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -22303,10 +22303,10 @@
       <c r="AH48" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI48" s="174" t="s">
+      <c r="AI48" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="AJ48" s="174" t="s">
+      <c r="AJ48" s="159" t="s">
         <v>274</v>
       </c>
       <c r="AK48" s="58" t="s">
@@ -22331,9 +22331,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="187"/>
-      <c r="B49" s="172"/>
+    <row r="49" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="174"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="54" t="s">
         <v>143</v>
       </c>
@@ -22430,8 +22430,8 @@
       <c r="AH49" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI49" s="175"/>
-      <c r="AJ49" s="175"/>
+      <c r="AI49" s="160"/>
+      <c r="AJ49" s="160"/>
       <c r="AK49" s="58" t="s">
         <v>252</v>
       </c>
@@ -22454,9 +22454,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="187"/>
-      <c r="B50" s="172"/>
+    <row r="50" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="174"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="54" t="s">
         <v>144</v>
       </c>
@@ -22553,8 +22553,8 @@
       <c r="AH50" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI50" s="175"/>
-      <c r="AJ50" s="175"/>
+      <c r="AI50" s="160"/>
+      <c r="AJ50" s="160"/>
       <c r="AK50" s="58" t="s">
         <v>252</v>
       </c>
@@ -22577,9 +22577,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="187"/>
-      <c r="B51" s="172"/>
+    <row r="51" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A51" s="174"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="54" t="s">
         <v>145</v>
       </c>
@@ -22676,8 +22676,8 @@
       <c r="AH51" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI51" s="175"/>
-      <c r="AJ51" s="175"/>
+      <c r="AI51" s="160"/>
+      <c r="AJ51" s="160"/>
       <c r="AK51" s="58" t="s">
         <v>252</v>
       </c>
@@ -22700,9 +22700,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="187"/>
-      <c r="B52" s="172"/>
+    <row r="52" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A52" s="174"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="54" t="s">
         <v>146</v>
       </c>
@@ -22799,8 +22799,8 @@
       <c r="AH52" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI52" s="175"/>
-      <c r="AJ52" s="175"/>
+      <c r="AI52" s="160"/>
+      <c r="AJ52" s="160"/>
       <c r="AK52" s="58" t="s">
         <v>252</v>
       </c>
@@ -22823,9 +22823,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="187"/>
-      <c r="B53" s="172"/>
+    <row r="53" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A53" s="174"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="54" t="s">
         <v>147</v>
       </c>
@@ -22922,8 +22922,8 @@
       <c r="AH53" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI53" s="175"/>
-      <c r="AJ53" s="175"/>
+      <c r="AI53" s="160"/>
+      <c r="AJ53" s="160"/>
       <c r="AK53" s="58" t="s">
         <v>252</v>
       </c>
@@ -22946,9 +22946,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="187"/>
-      <c r="B54" s="172"/>
+    <row r="54" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="174"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="54" t="s">
         <v>148</v>
       </c>
@@ -23045,8 +23045,8 @@
       <c r="AH54" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI54" s="176"/>
-      <c r="AJ54" s="176"/>
+      <c r="AI54" s="161"/>
+      <c r="AJ54" s="161"/>
       <c r="AK54" s="58" t="s">
         <v>252</v>
       </c>
@@ -23069,9 +23069,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="187"/>
-      <c r="B55" s="188" t="s">
+    <row r="55" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A55" s="174"/>
+      <c r="B55" s="182" t="s">
         <v>215</v>
       </c>
       <c r="C55" s="82" t="s">
@@ -23125,7 +23125,7 @@
       <c r="S55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="T55" s="177" t="s">
+      <c r="T55" s="153" t="s">
         <v>232</v>
       </c>
       <c r="U55" s="83">
@@ -23161,7 +23161,7 @@
       <c r="AE55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AF55" s="177" t="s">
+      <c r="AF55" s="153" t="s">
         <v>219</v>
       </c>
       <c r="AG55" s="83">
@@ -23170,10 +23170,10 @@
       <c r="AH55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AI55" s="177" t="s">
+      <c r="AI55" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="AJ55" s="177" t="s">
+      <c r="AJ55" s="153" t="s">
         <v>274</v>
       </c>
       <c r="AK55" s="85" t="s">
@@ -23198,9 +23198,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="187"/>
-      <c r="B56" s="189"/>
+    <row r="56" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A56" s="174"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="82" t="s">
         <v>102</v>
       </c>
@@ -23252,7 +23252,7 @@
       <c r="S56" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="T56" s="178"/>
+      <c r="T56" s="154"/>
       <c r="U56" s="83">
         <v>1</v>
       </c>
@@ -23286,15 +23286,15 @@
       <c r="AE56" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AF56" s="178"/>
+      <c r="AF56" s="154"/>
       <c r="AG56" s="83">
         <v>1</v>
       </c>
       <c r="AH56" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AI56" s="178"/>
-      <c r="AJ56" s="178"/>
+      <c r="AI56" s="154"/>
+      <c r="AJ56" s="154"/>
       <c r="AK56" s="85" t="s">
         <v>252</v>
       </c>
@@ -23317,9 +23317,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="187"/>
-      <c r="B57" s="190"/>
+    <row r="57" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A57" s="174"/>
+      <c r="B57" s="184"/>
       <c r="C57" s="82" t="s">
         <v>103</v>
       </c>
@@ -23371,7 +23371,7 @@
       <c r="S57" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="T57" s="179"/>
+      <c r="T57" s="155"/>
       <c r="U57" s="83">
         <v>1</v>
       </c>
@@ -23405,15 +23405,15 @@
       <c r="AE57" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AF57" s="179"/>
+      <c r="AF57" s="155"/>
       <c r="AG57" s="83">
         <v>1</v>
       </c>
       <c r="AH57" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AI57" s="179"/>
-      <c r="AJ57" s="179"/>
+      <c r="AI57" s="155"/>
+      <c r="AJ57" s="155"/>
       <c r="AK57" s="85" t="s">
         <v>252</v>
       </c>
@@ -23436,9 +23436,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="187"/>
-      <c r="B58" s="168" t="s">
+    <row r="58" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A58" s="174"/>
+      <c r="B58" s="186" t="s">
         <v>216</v>
       </c>
       <c r="C58" s="88" t="s">
@@ -23528,7 +23528,7 @@
       <c r="AE58" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="AF58" s="180" t="s">
+      <c r="AF58" s="156" t="s">
         <v>219</v>
       </c>
       <c r="AG58" s="89">
@@ -23537,10 +23537,10 @@
       <c r="AH58" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI58" s="180" t="s">
+      <c r="AI58" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="AJ58" s="180" t="s">
+      <c r="AJ58" s="156" t="s">
         <v>301</v>
       </c>
       <c r="AK58" s="91" t="s">
@@ -23565,9 +23565,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="187"/>
-      <c r="B59" s="169"/>
+    <row r="59" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A59" s="174"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="88" t="s">
         <v>126</v>
       </c>
@@ -23655,15 +23655,15 @@
       <c r="AE59" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="AF59" s="181"/>
+      <c r="AF59" s="157"/>
       <c r="AG59" s="89">
         <v>1</v>
       </c>
       <c r="AH59" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI59" s="181"/>
-      <c r="AJ59" s="181"/>
+      <c r="AI59" s="157"/>
+      <c r="AJ59" s="157"/>
       <c r="AK59" s="91" t="s">
         <v>252</v>
       </c>
@@ -23686,9 +23686,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="187"/>
-      <c r="B60" s="169"/>
+    <row r="60" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A60" s="174"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="88" t="s">
         <v>127</v>
       </c>
@@ -23776,15 +23776,15 @@
       <c r="AE60" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="AF60" s="181"/>
+      <c r="AF60" s="157"/>
       <c r="AG60" s="89">
         <v>1</v>
       </c>
       <c r="AH60" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI60" s="181"/>
-      <c r="AJ60" s="181"/>
+      <c r="AI60" s="157"/>
+      <c r="AJ60" s="157"/>
       <c r="AK60" s="91" t="s">
         <v>252</v>
       </c>
@@ -23807,9 +23807,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="187"/>
-      <c r="B61" s="169"/>
+    <row r="61" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A61" s="174"/>
+      <c r="B61" s="187"/>
       <c r="C61" s="88" t="s">
         <v>128</v>
       </c>
@@ -23897,15 +23897,15 @@
       <c r="AE61" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="AF61" s="181"/>
+      <c r="AF61" s="157"/>
       <c r="AG61" s="89">
         <v>1</v>
       </c>
       <c r="AH61" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI61" s="181"/>
-      <c r="AJ61" s="181"/>
+      <c r="AI61" s="157"/>
+      <c r="AJ61" s="157"/>
       <c r="AK61" s="91" t="s">
         <v>252</v>
       </c>
@@ -23928,9 +23928,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
-      <c r="B62" s="169"/>
+    <row r="62" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A62" s="174"/>
+      <c r="B62" s="187"/>
       <c r="C62" s="88" t="s">
         <v>129</v>
       </c>
@@ -24018,15 +24018,15 @@
       <c r="AE62" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="AF62" s="181"/>
+      <c r="AF62" s="157"/>
       <c r="AG62" s="89">
         <v>1</v>
       </c>
       <c r="AH62" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI62" s="181"/>
-      <c r="AJ62" s="181"/>
+      <c r="AI62" s="157"/>
+      <c r="AJ62" s="157"/>
       <c r="AK62" s="91" t="s">
         <v>252</v>
       </c>
@@ -24049,9 +24049,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="187"/>
-      <c r="B63" s="169"/>
+    <row r="63" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A63" s="174"/>
+      <c r="B63" s="187"/>
       <c r="C63" s="88" t="s">
         <v>130</v>
       </c>
@@ -24139,15 +24139,15 @@
       <c r="AE63" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AF63" s="181"/>
+      <c r="AF63" s="157"/>
       <c r="AG63" s="89">
         <v>1</v>
       </c>
       <c r="AH63" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI63" s="181"/>
-      <c r="AJ63" s="181"/>
+      <c r="AI63" s="157"/>
+      <c r="AJ63" s="157"/>
       <c r="AK63" s="91" t="s">
         <v>252</v>
       </c>
@@ -24170,9 +24170,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="187"/>
-      <c r="B64" s="170"/>
+    <row r="64" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A64" s="174"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="88" t="s">
         <v>131</v>
       </c>
@@ -24260,15 +24260,15 @@
       <c r="AE64" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AF64" s="182"/>
+      <c r="AF64" s="158"/>
       <c r="AG64" s="89">
         <v>1</v>
       </c>
       <c r="AH64" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI64" s="182"/>
-      <c r="AJ64" s="182"/>
+      <c r="AI64" s="158"/>
+      <c r="AJ64" s="158"/>
       <c r="AK64" s="91" t="s">
         <v>252</v>
       </c>
@@ -24291,9 +24291,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
-      <c r="B65" s="165" t="s">
+    <row r="65" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A65" s="174"/>
+      <c r="B65" s="177" t="s">
         <v>217</v>
       </c>
       <c r="C65" s="49" t="s">
@@ -24383,7 +24383,7 @@
       <c r="AE65" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AF65" s="183" t="s">
+      <c r="AF65" s="150" t="s">
         <v>219</v>
       </c>
       <c r="AG65" s="50">
@@ -24392,10 +24392,10 @@
       <c r="AH65" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI65" s="183" t="s">
+      <c r="AI65" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="AJ65" s="183" t="s">
+      <c r="AJ65" s="150" t="s">
         <v>300</v>
       </c>
       <c r="AK65" s="51" t="s">
@@ -24420,9 +24420,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="187"/>
-      <c r="B66" s="166"/>
+    <row r="66" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A66" s="174"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="49" t="s">
         <v>133</v>
       </c>
@@ -24510,15 +24510,15 @@
       <c r="AE66" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="AF66" s="184"/>
+      <c r="AF66" s="151"/>
       <c r="AG66" s="50">
         <v>1</v>
       </c>
       <c r="AH66" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI66" s="184"/>
-      <c r="AJ66" s="184"/>
+      <c r="AI66" s="151"/>
+      <c r="AJ66" s="151"/>
       <c r="AK66" s="51" t="s">
         <v>252</v>
       </c>
@@ -24541,9 +24541,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="187"/>
-      <c r="B67" s="166"/>
+    <row r="67" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A67" s="174"/>
+      <c r="B67" s="178"/>
       <c r="C67" s="49" t="s">
         <v>134</v>
       </c>
@@ -24631,15 +24631,15 @@
       <c r="AE67" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AF67" s="184"/>
+      <c r="AF67" s="151"/>
       <c r="AG67" s="50">
         <v>1</v>
       </c>
       <c r="AH67" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI67" s="184"/>
-      <c r="AJ67" s="184"/>
+      <c r="AI67" s="151"/>
+      <c r="AJ67" s="151"/>
       <c r="AK67" s="51" t="s">
         <v>252</v>
       </c>
@@ -24662,9 +24662,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="187"/>
-      <c r="B68" s="166"/>
+    <row r="68" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A68" s="174"/>
+      <c r="B68" s="178"/>
       <c r="C68" s="49" t="s">
         <v>135</v>
       </c>
@@ -24752,15 +24752,15 @@
       <c r="AE68" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AF68" s="184"/>
+      <c r="AF68" s="151"/>
       <c r="AG68" s="50">
         <v>1</v>
       </c>
       <c r="AH68" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI68" s="184"/>
-      <c r="AJ68" s="184"/>
+      <c r="AI68" s="151"/>
+      <c r="AJ68" s="151"/>
       <c r="AK68" s="51" t="s">
         <v>252</v>
       </c>
@@ -24783,9 +24783,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="187"/>
-      <c r="B69" s="166"/>
+    <row r="69" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A69" s="174"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="49" t="s">
         <v>136</v>
       </c>
@@ -24873,15 +24873,15 @@
       <c r="AE69" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="AF69" s="184"/>
+      <c r="AF69" s="151"/>
       <c r="AG69" s="50">
         <v>1</v>
       </c>
       <c r="AH69" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI69" s="184"/>
-      <c r="AJ69" s="184"/>
+      <c r="AI69" s="151"/>
+      <c r="AJ69" s="151"/>
       <c r="AK69" s="51" t="s">
         <v>252</v>
       </c>
@@ -24904,9 +24904,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="187"/>
-      <c r="B70" s="166"/>
+    <row r="70" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A70" s="174"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="49" t="s">
         <v>137</v>
       </c>
@@ -24994,15 +24994,15 @@
       <c r="AE70" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AF70" s="184"/>
+      <c r="AF70" s="151"/>
       <c r="AG70" s="50">
         <v>1</v>
       </c>
       <c r="AH70" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI70" s="184"/>
-      <c r="AJ70" s="184"/>
+      <c r="AI70" s="151"/>
+      <c r="AJ70" s="151"/>
       <c r="AK70" s="51" t="s">
         <v>252</v>
       </c>
@@ -25025,9 +25025,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="187"/>
-      <c r="B71" s="167"/>
+    <row r="71" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A71" s="174"/>
+      <c r="B71" s="179"/>
       <c r="C71" s="49" t="s">
         <v>138</v>
       </c>
@@ -25115,15 +25115,15 @@
       <c r="AE71" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AF71" s="185"/>
+      <c r="AF71" s="152"/>
       <c r="AG71" s="50">
         <v>1</v>
       </c>
       <c r="AH71" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI71" s="185"/>
-      <c r="AJ71" s="185"/>
+      <c r="AI71" s="152"/>
+      <c r="AJ71" s="152"/>
       <c r="AK71" s="51" t="s">
         <v>252</v>
       </c>
@@ -25146,9 +25146,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="187"/>
-      <c r="B72" s="191" t="s">
+    <row r="72" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A72" s="174"/>
+      <c r="B72" s="185" t="s">
         <v>296</v>
       </c>
       <c r="C72" s="97" t="s">
@@ -25202,7 +25202,7 @@
       <c r="S72" s="98">
         <v>1</v>
       </c>
-      <c r="T72" s="150" t="s">
+      <c r="T72" s="144" t="s">
         <v>257</v>
       </c>
       <c r="U72" s="98">
@@ -25247,10 +25247,10 @@
       <c r="AH72" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI72" s="150" t="s">
+      <c r="AI72" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="AJ72" s="150" t="s">
+      <c r="AJ72" s="144" t="s">
         <v>277</v>
       </c>
       <c r="AK72" s="101" t="s">
@@ -25275,9 +25275,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="187"/>
-      <c r="B73" s="191"/>
+    <row r="73" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A73" s="174"/>
+      <c r="B73" s="185"/>
       <c r="C73" s="97" t="s">
         <v>25</v>
       </c>
@@ -25329,7 +25329,7 @@
       <c r="S73" s="98">
         <v>1</v>
       </c>
-      <c r="T73" s="151"/>
+      <c r="T73" s="145"/>
       <c r="U73" s="98">
         <v>1</v>
       </c>
@@ -25372,8 +25372,8 @@
       <c r="AH73" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI73" s="151"/>
-      <c r="AJ73" s="151"/>
+      <c r="AI73" s="145"/>
+      <c r="AJ73" s="145"/>
       <c r="AK73" s="101" t="s">
         <v>252</v>
       </c>
@@ -25396,9 +25396,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="187"/>
-      <c r="B74" s="191"/>
+    <row r="74" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A74" s="174"/>
+      <c r="B74" s="185"/>
       <c r="C74" s="97" t="s">
         <v>26</v>
       </c>
@@ -25450,7 +25450,7 @@
       <c r="S74" s="98">
         <v>1</v>
       </c>
-      <c r="T74" s="151"/>
+      <c r="T74" s="145"/>
       <c r="U74" s="98">
         <v>1</v>
       </c>
@@ -25493,8 +25493,8 @@
       <c r="AH74" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI74" s="151"/>
-      <c r="AJ74" s="151"/>
+      <c r="AI74" s="145"/>
+      <c r="AJ74" s="145"/>
       <c r="AK74" s="101" t="s">
         <v>252</v>
       </c>
@@ -25517,9 +25517,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="187"/>
-      <c r="B75" s="191"/>
+    <row r="75" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A75" s="174"/>
+      <c r="B75" s="185"/>
       <c r="C75" s="97" t="s">
         <v>27</v>
       </c>
@@ -25571,7 +25571,7 @@
       <c r="S75" s="98">
         <v>1</v>
       </c>
-      <c r="T75" s="151"/>
+      <c r="T75" s="145"/>
       <c r="U75" s="98">
         <v>1</v>
       </c>
@@ -25614,8 +25614,8 @@
       <c r="AH75" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI75" s="151"/>
-      <c r="AJ75" s="151"/>
+      <c r="AI75" s="145"/>
+      <c r="AJ75" s="145"/>
       <c r="AK75" s="101" t="s">
         <v>252</v>
       </c>
@@ -25638,9 +25638,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="187"/>
-      <c r="B76" s="191"/>
+    <row r="76" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A76" s="174"/>
+      <c r="B76" s="185"/>
       <c r="C76" s="102" t="s">
         <v>28</v>
       </c>
@@ -25692,7 +25692,7 @@
       <c r="S76" s="98">
         <v>1</v>
       </c>
-      <c r="T76" s="152"/>
+      <c r="T76" s="146"/>
       <c r="U76" s="98">
         <v>1</v>
       </c>
@@ -25735,8 +25735,8 @@
       <c r="AH76" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI76" s="152"/>
-      <c r="AJ76" s="152"/>
+      <c r="AI76" s="146"/>
+      <c r="AJ76" s="146"/>
       <c r="AK76" s="101" t="s">
         <v>251</v>
       </c>
@@ -25759,11 +25759,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="147" t="s">
+    <row r="77" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A77" s="192" t="s">
         <v>286</v>
       </c>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="172" t="s">
         <v>297</v>
       </c>
       <c r="C77" s="61" t="s">
@@ -25862,10 +25862,10 @@
       <c r="AH77" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI77" s="144" t="s">
+      <c r="AI77" s="172" t="s">
         <v>278</v>
       </c>
-      <c r="AJ77" s="144" t="s">
+      <c r="AJ77" s="172" t="s">
         <v>276</v>
       </c>
       <c r="AK77" s="65" t="s">
@@ -25890,9 +25890,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="148"/>
-      <c r="B78" s="145"/>
+    <row r="78" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A78" s="193"/>
+      <c r="B78" s="148"/>
       <c r="C78" s="61" t="s">
         <v>6</v>
       </c>
@@ -25989,8 +25989,8 @@
       <c r="AH78" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI78" s="145"/>
-      <c r="AJ78" s="145"/>
+      <c r="AI78" s="148"/>
+      <c r="AJ78" s="148"/>
       <c r="AK78" s="65" t="s">
         <v>252</v>
       </c>
@@ -26013,9 +26013,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="148"/>
-      <c r="B79" s="145"/>
+    <row r="79" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A79" s="193"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="61" t="s">
         <v>285</v>
       </c>
@@ -26112,8 +26112,8 @@
       <c r="AH79" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI79" s="145"/>
-      <c r="AJ79" s="145"/>
+      <c r="AI79" s="148"/>
+      <c r="AJ79" s="148"/>
       <c r="AK79" s="65" t="s">
         <v>252</v>
       </c>
@@ -26136,9 +26136,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="148"/>
-      <c r="B80" s="146"/>
+    <row r="80" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A80" s="193"/>
+      <c r="B80" s="149"/>
       <c r="C80" s="61" t="s">
         <v>8</v>
       </c>
@@ -26235,8 +26235,8 @@
       <c r="AH80" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI80" s="146"/>
-      <c r="AJ80" s="146"/>
+      <c r="AI80" s="149"/>
+      <c r="AJ80" s="149"/>
       <c r="AK80" s="65" t="s">
         <v>252</v>
       </c>
@@ -26259,700 +26259,700 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:8">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:8">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:8">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:8">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:8">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:8">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:8">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:8">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:8">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:8">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:8">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:8">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:8">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:8">
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:8">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:8">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:8">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:8">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:8">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:8">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:8">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:8">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:8">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:8">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:8">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:8">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:8">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:8">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:8">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:8">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:8">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:8">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:8">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:8">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:8">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:8">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:8">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:8">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:8">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:8">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:8">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:8">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:8">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:8">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:8">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:8">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:8">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:8">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:8">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:8">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:8">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:8">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:8">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:8">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:8">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:8">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:8">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:8">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:8">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:8">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:8">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:8">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:8">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:8">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:8">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:8">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:8">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:8">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:8">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:8">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:8">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:8">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:8">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:8">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:8">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:8">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:8">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:8">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:8">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:8">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:8">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:8">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:8">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:8">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:8">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:8">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:8">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:8">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:8">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:8">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:8">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -26960,47 +26960,27 @@
       <c r="H180" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j4RdJW8qrCGWNRIrrSYcNJ87QaRq8SUhE+4MNifDsE13blx3mAhQDq3w/htgkDuH5tTQ3B+FxxqaphGdsU6ang==" saltValue="bEhF06B5NcMheS7U/mH/fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JcQLP13qYkp+oiGe7RCioFOfN7s87fYendUOCQ7hg8wH9CvrQMBr3Vj664nTf2m5EXDAxdI7V3iKQu7Rp4dU2w==" saltValue="LhfZJTDeRd7c8Z0qgOYuPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A3:AR80">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="68">
-    <mergeCell ref="AI72:AI76"/>
-    <mergeCell ref="AI38:AI41"/>
-    <mergeCell ref="AJ38:AJ41"/>
-    <mergeCell ref="AI42:AI47"/>
-    <mergeCell ref="AJ42:AJ47"/>
-    <mergeCell ref="AI55:AI57"/>
-    <mergeCell ref="AI58:AI64"/>
-    <mergeCell ref="AJ58:AJ64"/>
-    <mergeCell ref="AI48:AI54"/>
-    <mergeCell ref="AJ48:AJ54"/>
-    <mergeCell ref="AJ72:AJ76"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI10"/>
-    <mergeCell ref="AJ4:AJ10"/>
-    <mergeCell ref="AJ55:AJ57"/>
-    <mergeCell ref="AI65:AI71"/>
-    <mergeCell ref="AJ65:AJ71"/>
-    <mergeCell ref="AJ32:AJ37"/>
-    <mergeCell ref="AI11:AI17"/>
-    <mergeCell ref="AJ11:AJ17"/>
-    <mergeCell ref="AI18:AI24"/>
-    <mergeCell ref="AJ18:AJ24"/>
-    <mergeCell ref="AI32:AI37"/>
-    <mergeCell ref="AJ25:AJ31"/>
-    <mergeCell ref="AI25:AI31"/>
-    <mergeCell ref="AF58:AF64"/>
-    <mergeCell ref="AF65:AF71"/>
-    <mergeCell ref="T55:T57"/>
-    <mergeCell ref="A38:A76"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="AJ77:AJ80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="AI77:AI80"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="T72:T76"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="AF25:AF31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="T32:T37"/>
+    <mergeCell ref="AF32:AF34"/>
+    <mergeCell ref="AF35:AF37"/>
+    <mergeCell ref="AF55:AF57"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="A4:A37"/>
@@ -27017,22 +26997,42 @@
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="AF18:AF24"/>
-    <mergeCell ref="AJ77:AJ80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="AI77:AI80"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="T72:T76"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="AF25:AF31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="T32:T37"/>
-    <mergeCell ref="AF32:AF34"/>
-    <mergeCell ref="AF35:AF37"/>
-    <mergeCell ref="AF55:AF57"/>
+    <mergeCell ref="AF58:AF64"/>
+    <mergeCell ref="AF65:AF71"/>
+    <mergeCell ref="T55:T57"/>
+    <mergeCell ref="A38:A76"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI10"/>
+    <mergeCell ref="AJ4:AJ10"/>
+    <mergeCell ref="AJ55:AJ57"/>
+    <mergeCell ref="AI65:AI71"/>
+    <mergeCell ref="AJ65:AJ71"/>
+    <mergeCell ref="AJ32:AJ37"/>
+    <mergeCell ref="AI11:AI17"/>
+    <mergeCell ref="AJ11:AJ17"/>
+    <mergeCell ref="AI18:AI24"/>
+    <mergeCell ref="AJ18:AJ24"/>
+    <mergeCell ref="AI32:AI37"/>
+    <mergeCell ref="AJ25:AJ31"/>
+    <mergeCell ref="AI25:AI31"/>
+    <mergeCell ref="AI72:AI76"/>
+    <mergeCell ref="AI38:AI41"/>
+    <mergeCell ref="AJ38:AJ41"/>
+    <mergeCell ref="AI42:AI47"/>
+    <mergeCell ref="AJ42:AJ47"/>
+    <mergeCell ref="AI55:AI57"/>
+    <mergeCell ref="AI58:AI64"/>
+    <mergeCell ref="AJ58:AJ64"/>
+    <mergeCell ref="AI48:AI54"/>
+    <mergeCell ref="AJ48:AJ54"/>
+    <mergeCell ref="AJ72:AJ76"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/华大MCU选型表_V1.0.0.xlsx
+++ b/华大MCU选型表_V1.0.0.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$AO$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">华大MCU选型!$A$3:$AR$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">华大MCU选型!$A$3:$AR$82</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="311">
   <si>
     <t>HC32L150KATA-LQ64</t>
   </si>
@@ -2654,6 +2654,70 @@
       <t>超低功耗唤醒时间</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32L110C6PA-TSSOP20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32L136K8TA-LQFP64</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32F460PETB-LQFP100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VFBGA100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14*14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32F460PEHB-VFBGA100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32F460PCTB-LQFP100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32F460KCTA-LQFP64</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC32F460JCTA-LQFP48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3275,7 +3339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3587,12 +3651,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3623,67 +3681,22 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3698,6 +3711,81 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3707,13 +3795,94 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3725,91 +3894,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3824,43 +3912,25 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3887,13 +3957,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>526675</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>153697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4257,91 +4327,91 @@
       <c r="AO1" s="22"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="134" t="s">
+      <c r="J2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="131" t="s">
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="133"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="AF2" s="131" t="s">
+      <c r="AF2" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="136" t="s">
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="AJ2" s="128" t="s">
+      <c r="AJ2" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="130"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="142"/>
     </row>
     <row r="3" spans="1:41" ht="30.75" thickBot="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
@@ -4414,7 +4484,7 @@
       <c r="AH3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AI3" s="135"/>
+      <c r="AI3" s="122"/>
       <c r="AJ3" s="12" t="s">
         <v>98</v>
       </c>
@@ -4435,10 +4505,10 @@
       </c>
     </row>
     <row r="4" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="131" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4560,8 +4630,8 @@
       </c>
     </row>
     <row r="5" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A5" s="138"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
@@ -4681,8 +4751,8 @@
       </c>
     </row>
     <row r="6" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
@@ -4802,8 +4872,8 @@
       </c>
     </row>
     <row r="7" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A7" s="138"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
@@ -4923,8 +4993,8 @@
       </c>
     </row>
     <row r="8" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="5" t="s">
         <v>186</v>
       </c>
@@ -5044,8 +5114,8 @@
       </c>
     </row>
     <row r="9" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
@@ -5165,8 +5235,8 @@
       </c>
     </row>
     <row r="10" spans="1:41" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A10" s="138"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
@@ -5286,8 +5356,8 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="138"/>
-      <c r="B11" s="124" t="s">
+      <c r="A11" s="130"/>
+      <c r="B11" s="131" t="s">
         <v>256</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5409,8 +5479,8 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="138"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
@@ -5530,8 +5600,8 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="138"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
@@ -5651,8 +5721,8 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="138"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="5" t="s">
         <v>247</v>
       </c>
@@ -5772,8 +5842,8 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -5893,8 +5963,8 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6014,8 +6084,8 @@
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
@@ -6135,8 +6205,8 @@
       </c>
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="138"/>
-      <c r="B18" s="124" t="s">
+      <c r="A18" s="130"/>
+      <c r="B18" s="131" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -6258,8 +6328,8 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -6379,8 +6449,8 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="5" t="s">
         <v>96</v>
       </c>
@@ -6500,8 +6570,8 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
@@ -6621,8 +6691,8 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="5" t="s">
         <v>248</v>
       </c>
@@ -6742,8 +6812,8 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="125"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
@@ -6863,8 +6933,8 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="127"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
@@ -6984,8 +7054,8 @@
       </c>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="138"/>
-      <c r="B25" s="124" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="131" t="s">
         <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -7075,7 +7145,7 @@
       <c r="AE25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF25" s="119" t="s">
+      <c r="AF25" s="135" t="s">
         <v>219</v>
       </c>
       <c r="AG25" s="29" t="s">
@@ -7107,8 +7177,8 @@
       </c>
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="125"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
@@ -7196,7 +7266,7 @@
       <c r="AE26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF26" s="120"/>
+      <c r="AF26" s="136"/>
       <c r="AG26" s="29" t="s">
         <v>50</v>
       </c>
@@ -7226,8 +7296,8 @@
       </c>
     </row>
     <row r="27" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
@@ -7315,7 +7385,7 @@
       <c r="AE27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF27" s="120"/>
+      <c r="AF27" s="136"/>
       <c r="AG27" s="29" t="s">
         <v>50</v>
       </c>
@@ -7345,8 +7415,8 @@
       </c>
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="138"/>
-      <c r="B28" s="125"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
@@ -7434,7 +7504,7 @@
       <c r="AE28" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF28" s="120"/>
+      <c r="AF28" s="136"/>
       <c r="AG28" s="29" t="s">
         <v>50</v>
       </c>
@@ -7464,8 +7534,8 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="138"/>
-      <c r="B29" s="125"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
@@ -7553,7 +7623,7 @@
       <c r="AE29" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF29" s="120"/>
+      <c r="AF29" s="136"/>
       <c r="AG29" s="29" t="s">
         <v>50</v>
       </c>
@@ -7583,8 +7653,8 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="138"/>
-      <c r="B30" s="125"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
@@ -7672,7 +7742,7 @@
       <c r="AE30" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF30" s="122"/>
+      <c r="AF30" s="137"/>
       <c r="AG30" s="29" t="s">
         <v>50</v>
       </c>
@@ -7702,8 +7772,8 @@
       </c>
     </row>
     <row r="31" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A31" s="138"/>
-      <c r="B31" s="124" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="131" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7793,7 +7863,7 @@
       <c r="AE31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF31" s="119" t="s">
+      <c r="AF31" s="135" t="s">
         <v>219</v>
       </c>
       <c r="AG31" s="6">
@@ -7825,8 +7895,8 @@
       </c>
     </row>
     <row r="32" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A32" s="138"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="5" t="s">
         <v>119</v>
       </c>
@@ -7914,7 +7984,7 @@
       <c r="AE32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF32" s="120"/>
+      <c r="AF32" s="136"/>
       <c r="AG32" s="6">
         <v>1</v>
       </c>
@@ -7944,8 +8014,8 @@
       </c>
     </row>
     <row r="33" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A33" s="138"/>
-      <c r="B33" s="125"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="5" t="s">
         <v>120</v>
       </c>
@@ -8033,7 +8103,7 @@
       <c r="AE33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF33" s="120"/>
+      <c r="AF33" s="136"/>
       <c r="AG33" s="6">
         <v>1</v>
       </c>
@@ -8063,8 +8133,8 @@
       </c>
     </row>
     <row r="34" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A34" s="138"/>
-      <c r="B34" s="125"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="5" t="s">
         <v>121</v>
       </c>
@@ -8152,7 +8222,7 @@
       <c r="AE34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF34" s="120"/>
+      <c r="AF34" s="136"/>
       <c r="AG34" s="6">
         <v>1</v>
       </c>
@@ -8182,8 +8252,8 @@
       </c>
     </row>
     <row r="35" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A35" s="138"/>
-      <c r="B35" s="125"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="5" t="s">
         <v>122</v>
       </c>
@@ -8271,7 +8341,7 @@
       <c r="AE35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF35" s="120"/>
+      <c r="AF35" s="136"/>
       <c r="AG35" s="6">
         <v>1</v>
       </c>
@@ -8301,8 +8371,8 @@
       </c>
     </row>
     <row r="36" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A36" s="138"/>
-      <c r="B36" s="125"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="5" t="s">
         <v>123</v>
       </c>
@@ -8390,7 +8460,7 @@
       <c r="AE36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF36" s="120"/>
+      <c r="AF36" s="136"/>
       <c r="AG36" s="6">
         <v>1</v>
       </c>
@@ -8420,8 +8490,8 @@
       </c>
     </row>
     <row r="37" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A37" s="138"/>
-      <c r="B37" s="127"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="5" t="s">
         <v>124</v>
       </c>
@@ -8509,7 +8579,7 @@
       <c r="AE37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF37" s="122"/>
+      <c r="AF37" s="137"/>
       <c r="AG37" s="6">
         <v>1</v>
       </c>
@@ -8539,8 +8609,8 @@
       </c>
     </row>
     <row r="38" spans="1:41" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A38" s="138"/>
-      <c r="B38" s="124" t="s">
+      <c r="A38" s="130"/>
+      <c r="B38" s="131" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -8630,7 +8700,7 @@
       <c r="AE38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF38" s="119" t="s">
+      <c r="AF38" s="135" t="s">
         <v>225</v>
       </c>
       <c r="AG38" s="6">
@@ -8662,8 +8732,8 @@
       </c>
     </row>
     <row r="39" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A39" s="138"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="5" t="s">
         <v>111</v>
       </c>
@@ -8751,7 +8821,7 @@
       <c r="AE39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF39" s="120"/>
+      <c r="AF39" s="136"/>
       <c r="AG39" s="6">
         <v>1</v>
       </c>
@@ -8781,8 +8851,8 @@
       </c>
     </row>
     <row r="40" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="138"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="5" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +8940,7 @@
       <c r="AE40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF40" s="120"/>
+      <c r="AF40" s="136"/>
       <c r="AG40" s="6">
         <v>1</v>
       </c>
@@ -8900,8 +8970,8 @@
       </c>
     </row>
     <row r="41" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A41" s="138"/>
-      <c r="B41" s="125"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="5" t="s">
         <v>113</v>
       </c>
@@ -8989,7 +9059,7 @@
       <c r="AE41" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF41" s="120"/>
+      <c r="AF41" s="136"/>
       <c r="AG41" s="6">
         <v>1</v>
       </c>
@@ -9019,8 +9089,8 @@
       </c>
     </row>
     <row r="42" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A42" s="138"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="5" t="s">
         <v>114</v>
       </c>
@@ -9108,7 +9178,7 @@
       <c r="AE42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF42" s="120"/>
+      <c r="AF42" s="136"/>
       <c r="AG42" s="6">
         <v>1</v>
       </c>
@@ -9138,8 +9208,8 @@
       </c>
     </row>
     <row r="43" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A43" s="138"/>
-      <c r="B43" s="125"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="5" t="s">
         <v>115</v>
       </c>
@@ -9227,7 +9297,7 @@
       <c r="AE43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF43" s="120"/>
+      <c r="AF43" s="136"/>
       <c r="AG43" s="6">
         <v>1</v>
       </c>
@@ -9257,8 +9327,8 @@
       </c>
     </row>
     <row r="44" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A44" s="138"/>
-      <c r="B44" s="127"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="5" t="s">
         <v>116</v>
       </c>
@@ -9346,7 +9416,7 @@
       <c r="AE44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF44" s="122"/>
+      <c r="AF44" s="137"/>
       <c r="AG44" s="6">
         <v>1</v>
       </c>
@@ -9376,8 +9446,8 @@
       </c>
     </row>
     <row r="45" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A45" s="138"/>
-      <c r="B45" s="124" t="s">
+      <c r="A45" s="130"/>
+      <c r="B45" s="131" t="s">
         <v>211</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -9431,7 +9501,7 @@
       <c r="S45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T45" s="119" t="s">
+      <c r="T45" s="135" t="s">
         <v>232</v>
       </c>
       <c r="U45" s="6">
@@ -9467,7 +9537,7 @@
       <c r="AE45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF45" s="119" t="s">
+      <c r="AF45" s="135" t="s">
         <v>225</v>
       </c>
       <c r="AG45" s="6">
@@ -9499,8 +9569,8 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="5" t="s">
         <v>105</v>
       </c>
@@ -9552,7 +9622,7 @@
       <c r="S46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T46" s="120"/>
+      <c r="T46" s="136"/>
       <c r="U46" s="6">
         <v>1</v>
       </c>
@@ -9586,7 +9656,7 @@
       <c r="AE46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF46" s="120"/>
+      <c r="AF46" s="136"/>
       <c r="AG46" s="6">
         <v>1</v>
       </c>
@@ -9616,8 +9686,8 @@
       </c>
     </row>
     <row r="47" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A47" s="138"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="132"/>
       <c r="C47" s="5" t="s">
         <v>106</v>
       </c>
@@ -9669,7 +9739,7 @@
       <c r="S47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T47" s="120"/>
+      <c r="T47" s="136"/>
       <c r="U47" s="6">
         <v>1</v>
       </c>
@@ -9703,7 +9773,7 @@
       <c r="AE47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF47" s="122"/>
+      <c r="AF47" s="137"/>
       <c r="AG47" s="6">
         <v>1</v>
       </c>
@@ -9733,8 +9803,8 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A48" s="138"/>
-      <c r="B48" s="125"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="132"/>
       <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
@@ -9786,7 +9856,7 @@
       <c r="S48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T48" s="120"/>
+      <c r="T48" s="136"/>
       <c r="U48" s="6">
         <v>1</v>
       </c>
@@ -9820,7 +9890,7 @@
       <c r="AE48" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AF48" s="119" t="s">
+      <c r="AF48" s="135" t="s">
         <v>225</v>
       </c>
       <c r="AG48" s="6">
@@ -9852,8 +9922,8 @@
       </c>
     </row>
     <row r="49" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A49" s="138"/>
-      <c r="B49" s="125"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="132"/>
       <c r="C49" s="5" t="s">
         <v>108</v>
       </c>
@@ -9905,7 +9975,7 @@
       <c r="S49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T49" s="120"/>
+      <c r="T49" s="136"/>
       <c r="U49" s="6">
         <v>1</v>
       </c>
@@ -9939,7 +10009,7 @@
       <c r="AE49" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AF49" s="120"/>
+      <c r="AF49" s="136"/>
       <c r="AG49" s="6">
         <v>1</v>
       </c>
@@ -9969,8 +10039,8 @@
       </c>
     </row>
     <row r="50" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A50" s="138"/>
-      <c r="B50" s="139"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="41" t="s">
         <v>109</v>
       </c>
@@ -10022,7 +10092,7 @@
       <c r="S50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="T50" s="121"/>
+      <c r="T50" s="139"/>
       <c r="U50" s="42">
         <v>1</v>
       </c>
@@ -10056,7 +10126,7 @@
       <c r="AE50" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AF50" s="121"/>
+      <c r="AF50" s="139"/>
       <c r="AG50" s="42">
         <v>1</v>
       </c>
@@ -10086,10 +10156,10 @@
       </c>
     </row>
     <row r="51" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="132" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -10211,8 +10281,8 @@
       </c>
     </row>
     <row r="52" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="138"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="132"/>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
@@ -10332,8 +10402,8 @@
       </c>
     </row>
     <row r="53" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="138"/>
-      <c r="B53" s="125"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="132"/>
       <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
@@ -10453,8 +10523,8 @@
       </c>
     </row>
     <row r="54" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="138"/>
-      <c r="B54" s="127"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="5" t="s">
         <v>17</v>
       </c>
@@ -10574,8 +10644,8 @@
       </c>
     </row>
     <row r="55" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="138"/>
-      <c r="B55" s="124" t="s">
+      <c r="A55" s="130"/>
+      <c r="B55" s="131" t="s">
         <v>195</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -10697,8 +10767,8 @@
       </c>
     </row>
     <row r="56" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="138"/>
-      <c r="B56" s="125"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
@@ -10818,8 +10888,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="138"/>
-      <c r="B57" s="125"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="132"/>
       <c r="C57" s="5" t="s">
         <v>92</v>
       </c>
@@ -10939,8 +11009,8 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A58" s="138"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="5" t="s">
         <v>20</v>
       </c>
@@ -11060,8 +11130,8 @@
       </c>
     </row>
     <row r="59" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A59" s="138"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="5" t="s">
         <v>89</v>
       </c>
@@ -11181,8 +11251,8 @@
       </c>
     </row>
     <row r="60" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="138"/>
-      <c r="B60" s="127"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="133"/>
       <c r="C60" s="5" t="s">
         <v>93</v>
       </c>
@@ -11300,8 +11370,8 @@
       </c>
     </row>
     <row r="61" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A61" s="138"/>
-      <c r="B61" s="124" t="s">
+      <c r="A61" s="130"/>
+      <c r="B61" s="131" t="s">
         <v>213</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -11423,8 +11493,8 @@
       </c>
     </row>
     <row r="62" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A62" s="138"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="132"/>
       <c r="C62" s="5" t="s">
         <v>143</v>
       </c>
@@ -11544,8 +11614,8 @@
       </c>
     </row>
     <row r="63" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A63" s="138"/>
-      <c r="B63" s="125"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="5" t="s">
         <v>144</v>
       </c>
@@ -11665,8 +11735,8 @@
       </c>
     </row>
     <row r="64" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A64" s="138"/>
-      <c r="B64" s="125"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="5" t="s">
         <v>145</v>
       </c>
@@ -11786,8 +11856,8 @@
       </c>
     </row>
     <row r="65" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A65" s="138"/>
-      <c r="B65" s="125"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="5" t="s">
         <v>146</v>
       </c>
@@ -11907,8 +11977,8 @@
       </c>
     </row>
     <row r="66" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="138"/>
-      <c r="B66" s="125"/>
+      <c r="A66" s="130"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="5" t="s">
         <v>147</v>
       </c>
@@ -12028,8 +12098,8 @@
       </c>
     </row>
     <row r="67" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A67" s="138"/>
-      <c r="B67" s="125"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="5" t="s">
         <v>148</v>
       </c>
@@ -12149,8 +12219,8 @@
       </c>
     </row>
     <row r="68" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A68" s="138"/>
-      <c r="B68" s="124" t="s">
+      <c r="A68" s="130"/>
+      <c r="B68" s="131" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -12204,7 +12274,7 @@
       <c r="S68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T68" s="119" t="s">
+      <c r="T68" s="135" t="s">
         <v>232</v>
       </c>
       <c r="U68" s="6">
@@ -12240,7 +12310,7 @@
       <c r="AE68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF68" s="119" t="s">
+      <c r="AF68" s="135" t="s">
         <v>225</v>
       </c>
       <c r="AG68" s="6">
@@ -12272,8 +12342,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A69" s="138"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="130"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="5" t="s">
         <v>102</v>
       </c>
@@ -12325,7 +12395,7 @@
       <c r="S69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T69" s="120"/>
+      <c r="T69" s="136"/>
       <c r="U69" s="6">
         <v>1</v>
       </c>
@@ -12359,7 +12429,7 @@
       <c r="AE69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF69" s="120"/>
+      <c r="AF69" s="136"/>
       <c r="AG69" s="6">
         <v>1</v>
       </c>
@@ -12389,8 +12459,8 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A70" s="138"/>
-      <c r="B70" s="127"/>
+      <c r="A70" s="130"/>
+      <c r="B70" s="133"/>
       <c r="C70" s="5" t="s">
         <v>103</v>
       </c>
@@ -12442,7 +12512,7 @@
       <c r="S70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T70" s="122"/>
+      <c r="T70" s="137"/>
       <c r="U70" s="6">
         <v>1</v>
       </c>
@@ -12476,7 +12546,7 @@
       <c r="AE70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF70" s="122"/>
+      <c r="AF70" s="137"/>
       <c r="AG70" s="6">
         <v>1</v>
       </c>
@@ -12506,8 +12576,8 @@
       </c>
     </row>
     <row r="71" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A71" s="138"/>
-      <c r="B71" s="124" t="s">
+      <c r="A71" s="130"/>
+      <c r="B71" s="131" t="s">
         <v>216</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -12597,7 +12667,7 @@
       <c r="AE71" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF71" s="119" t="s">
+      <c r="AF71" s="135" t="s">
         <v>219</v>
       </c>
       <c r="AG71" s="6">
@@ -12629,8 +12699,8 @@
       </c>
     </row>
     <row r="72" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A72" s="138"/>
-      <c r="B72" s="125"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="5" t="s">
         <v>126</v>
       </c>
@@ -12718,7 +12788,7 @@
       <c r="AE72" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF72" s="120"/>
+      <c r="AF72" s="136"/>
       <c r="AG72" s="6">
         <v>1</v>
       </c>
@@ -12748,8 +12818,8 @@
       </c>
     </row>
     <row r="73" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A73" s="138"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="5" t="s">
         <v>127</v>
       </c>
@@ -12837,7 +12907,7 @@
       <c r="AE73" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF73" s="120"/>
+      <c r="AF73" s="136"/>
       <c r="AG73" s="6">
         <v>1</v>
       </c>
@@ -12867,8 +12937,8 @@
       </c>
     </row>
     <row r="74" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A74" s="138"/>
-      <c r="B74" s="125"/>
+      <c r="A74" s="130"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="5" t="s">
         <v>128</v>
       </c>
@@ -12956,7 +13026,7 @@
       <c r="AE74" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF74" s="120"/>
+      <c r="AF74" s="136"/>
       <c r="AG74" s="6">
         <v>1</v>
       </c>
@@ -12986,8 +13056,8 @@
       </c>
     </row>
     <row r="75" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A75" s="138"/>
-      <c r="B75" s="125"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="5" t="s">
         <v>129</v>
       </c>
@@ -13075,7 +13145,7 @@
       <c r="AE75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF75" s="120"/>
+      <c r="AF75" s="136"/>
       <c r="AG75" s="6">
         <v>1</v>
       </c>
@@ -13105,8 +13175,8 @@
       </c>
     </row>
     <row r="76" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A76" s="138"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="5" t="s">
         <v>130</v>
       </c>
@@ -13194,7 +13264,7 @@
       <c r="AE76" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF76" s="120"/>
+      <c r="AF76" s="136"/>
       <c r="AG76" s="6">
         <v>1</v>
       </c>
@@ -13224,8 +13294,8 @@
       </c>
     </row>
     <row r="77" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A77" s="138"/>
-      <c r="B77" s="127"/>
+      <c r="A77" s="130"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="5" t="s">
         <v>131</v>
       </c>
@@ -13313,7 +13383,7 @@
       <c r="AE77" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF77" s="122"/>
+      <c r="AF77" s="137"/>
       <c r="AG77" s="6">
         <v>1</v>
       </c>
@@ -13343,8 +13413,8 @@
       </c>
     </row>
     <row r="78" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A78" s="138"/>
-      <c r="B78" s="124" t="s">
+      <c r="A78" s="130"/>
+      <c r="B78" s="131" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -13434,7 +13504,7 @@
       <c r="AE78" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AF78" s="119" t="s">
+      <c r="AF78" s="135" t="s">
         <v>225</v>
       </c>
       <c r="AG78" s="6">
@@ -13466,8 +13536,8 @@
       </c>
     </row>
     <row r="79" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A79" s="138"/>
-      <c r="B79" s="125"/>
+      <c r="A79" s="130"/>
+      <c r="B79" s="132"/>
       <c r="C79" s="5" t="s">
         <v>133</v>
       </c>
@@ -13555,7 +13625,7 @@
       <c r="AE79" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF79" s="120"/>
+      <c r="AF79" s="136"/>
       <c r="AG79" s="6">
         <v>1</v>
       </c>
@@ -13585,8 +13655,8 @@
       </c>
     </row>
     <row r="80" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A80" s="138"/>
-      <c r="B80" s="125"/>
+      <c r="A80" s="130"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="5" t="s">
         <v>134</v>
       </c>
@@ -13674,7 +13744,7 @@
       <c r="AE80" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF80" s="120"/>
+      <c r="AF80" s="136"/>
       <c r="AG80" s="6">
         <v>1</v>
       </c>
@@ -13704,8 +13774,8 @@
       </c>
     </row>
     <row r="81" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A81" s="138"/>
-      <c r="B81" s="125"/>
+      <c r="A81" s="130"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="5" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +13863,7 @@
       <c r="AE81" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF81" s="120"/>
+      <c r="AF81" s="136"/>
       <c r="AG81" s="6">
         <v>1</v>
       </c>
@@ -13823,8 +13893,8 @@
       </c>
     </row>
     <row r="82" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A82" s="138"/>
-      <c r="B82" s="125"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="5" t="s">
         <v>136</v>
       </c>
@@ -13912,7 +13982,7 @@
       <c r="AE82" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AF82" s="120"/>
+      <c r="AF82" s="136"/>
       <c r="AG82" s="6">
         <v>1</v>
       </c>
@@ -13942,8 +14012,8 @@
       </c>
     </row>
     <row r="83" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A83" s="138"/>
-      <c r="B83" s="125"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="132"/>
       <c r="C83" s="5" t="s">
         <v>137</v>
       </c>
@@ -14031,7 +14101,7 @@
       <c r="AE83" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF83" s="120"/>
+      <c r="AF83" s="136"/>
       <c r="AG83" s="6">
         <v>1</v>
       </c>
@@ -14061,8 +14131,8 @@
       </c>
     </row>
     <row r="84" spans="1:41" ht="17.25" thickBot="1">
-      <c r="A84" s="138"/>
-      <c r="B84" s="127"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="133"/>
       <c r="C84" s="5" t="s">
         <v>138</v>
       </c>
@@ -14150,7 +14220,7 @@
       <c r="AE84" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF84" s="122"/>
+      <c r="AF84" s="137"/>
       <c r="AG84" s="6">
         <v>1</v>
       </c>
@@ -14180,8 +14250,8 @@
       </c>
     </row>
     <row r="85" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A85" s="138"/>
-      <c r="B85" s="124" t="s">
+      <c r="A85" s="130"/>
+      <c r="B85" s="131" t="s">
         <v>214</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -14303,8 +14373,8 @@
       </c>
     </row>
     <row r="86" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A86" s="138"/>
-      <c r="B86" s="125"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="132"/>
       <c r="C86" s="19" t="s">
         <v>150</v>
       </c>
@@ -14424,8 +14494,8 @@
       </c>
     </row>
     <row r="87" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A87" s="138"/>
-      <c r="B87" s="125"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="132"/>
       <c r="C87" s="19" t="s">
         <v>151</v>
       </c>
@@ -14545,8 +14615,8 @@
       </c>
     </row>
     <row r="88" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A88" s="138"/>
-      <c r="B88" s="127"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="133"/>
       <c r="C88" s="19" t="s">
         <v>152</v>
       </c>
@@ -14666,8 +14736,8 @@
       </c>
     </row>
     <row r="89" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A89" s="138"/>
-      <c r="B89" s="124" t="s">
+      <c r="A89" s="130"/>
+      <c r="B89" s="131" t="s">
         <v>218</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -14789,8 +14859,8 @@
       </c>
     </row>
     <row r="90" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A90" s="138"/>
-      <c r="B90" s="125"/>
+      <c r="A90" s="130"/>
+      <c r="B90" s="132"/>
       <c r="C90" s="5" t="s">
         <v>6</v>
       </c>
@@ -14910,8 +14980,8 @@
       </c>
     </row>
     <row r="91" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A91" s="138"/>
-      <c r="B91" s="125"/>
+      <c r="A91" s="130"/>
+      <c r="B91" s="132"/>
       <c r="C91" s="24" t="s">
         <v>7</v>
       </c>
@@ -15031,8 +15101,8 @@
       </c>
     </row>
     <row r="92" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A92" s="138"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="145"/>
       <c r="C92" s="24" t="s">
         <v>8</v>
       </c>
@@ -15152,8 +15222,8 @@
       </c>
     </row>
     <row r="93" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A93" s="138"/>
-      <c r="B93" s="123" t="s">
+      <c r="A93" s="130"/>
+      <c r="B93" s="144" t="s">
         <v>253</v>
       </c>
       <c r="C93" s="24" t="s">
@@ -15207,7 +15277,7 @@
       <c r="S93" s="6">
         <v>1</v>
       </c>
-      <c r="T93" s="119" t="s">
+      <c r="T93" s="135" t="s">
         <v>257</v>
       </c>
       <c r="U93" s="6">
@@ -15275,8 +15345,8 @@
       </c>
     </row>
     <row r="94" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A94" s="138"/>
-      <c r="B94" s="123"/>
+      <c r="A94" s="130"/>
+      <c r="B94" s="144"/>
       <c r="C94" s="24" t="s">
         <v>25</v>
       </c>
@@ -15328,7 +15398,7 @@
       <c r="S94" s="6">
         <v>1</v>
       </c>
-      <c r="T94" s="120"/>
+      <c r="T94" s="136"/>
       <c r="U94" s="6">
         <v>1</v>
       </c>
@@ -15394,8 +15464,8 @@
       </c>
     </row>
     <row r="95" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A95" s="138"/>
-      <c r="B95" s="123"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="144"/>
       <c r="C95" s="24" t="s">
         <v>26</v>
       </c>
@@ -15447,7 +15517,7 @@
       <c r="S95" s="6">
         <v>1</v>
       </c>
-      <c r="T95" s="120"/>
+      <c r="T95" s="136"/>
       <c r="U95" s="6">
         <v>1</v>
       </c>
@@ -15513,8 +15583,8 @@
       </c>
     </row>
     <row r="96" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A96" s="138"/>
-      <c r="B96" s="123"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="144"/>
       <c r="C96" s="24" t="s">
         <v>27</v>
       </c>
@@ -15566,7 +15636,7 @@
       <c r="S96" s="6">
         <v>1</v>
       </c>
-      <c r="T96" s="120"/>
+      <c r="T96" s="136"/>
       <c r="U96" s="6">
         <v>1</v>
       </c>
@@ -15632,8 +15702,8 @@
       </c>
     </row>
     <row r="97" spans="1:41" ht="15" customHeight="1" thickBot="1">
-      <c r="A97" s="138"/>
-      <c r="B97" s="123"/>
+      <c r="A97" s="130"/>
+      <c r="B97" s="144"/>
       <c r="C97" s="7" t="s">
         <v>28</v>
       </c>
@@ -15685,7 +15755,7 @@
       <c r="S97" s="6">
         <v>1</v>
       </c>
-      <c r="T97" s="122"/>
+      <c r="T97" s="137"/>
       <c r="U97" s="6">
         <v>1</v>
       </c>
@@ -16485,11 +16555,29 @@
   <sheetProtection algorithmName="SHA-512" hashValue="Wbqm61aM/mTQ3dOyzftXkU93cAgStSBsFA8qEjZzDES5lV5nq6wsJzBzU/PN0tSR9EGqrqa17BhljMwDDhxAOQ==" saltValue="CsqII684U3DvG5cPocUOMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <autoFilter ref="C3:AO97"/>
   <mergeCells count="44">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A4:A50"/>
-    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="T45:T50"/>
+    <mergeCell ref="AF78:AF84"/>
+    <mergeCell ref="AF71:AF77"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="A51:A97"/>
     <mergeCell ref="AF25:AF30"/>
     <mergeCell ref="B4:B10"/>
@@ -16506,29 +16594,11 @@
     <mergeCell ref="AF48:AF50"/>
     <mergeCell ref="T93:T97"/>
     <mergeCell ref="T68:T70"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="T45:T50"/>
-    <mergeCell ref="AF78:AF84"/>
-    <mergeCell ref="AF71:AF77"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:A50"/>
+    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16538,13 +16608,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ180"/>
+  <dimension ref="A1:AQ182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U99" sqref="U99"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -16601,95 +16671,95 @@
       <c r="AQ1" s="22"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="134" t="s">
+      <c r="J2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="131" t="s">
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="133"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="AF2" s="162" t="s">
+      <c r="AF2" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="162" t="s">
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="136" t="s">
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="AL2" s="128" t="s">
+      <c r="AL2" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="130"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="141"/>
+      <c r="AQ2" s="142"/>
     </row>
     <row r="3" spans="1:43" ht="30.75" thickBot="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
@@ -16768,7 +16838,7 @@
       <c r="AJ3" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="AK3" s="135"/>
+      <c r="AK3" s="122"/>
       <c r="AL3" s="12" t="s">
         <v>98</v>
       </c>
@@ -16789,19 +16859,19 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="168" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="170" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="D4" s="50">
         <v>32</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="50">
@@ -16891,10 +16961,10 @@
       <c r="AH4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="150" t="s">
+      <c r="AI4" s="185" t="s">
         <v>272</v>
       </c>
-      <c r="AJ4" s="163" t="s">
+      <c r="AJ4" s="194" t="s">
         <v>270</v>
       </c>
       <c r="AK4" s="51" t="s">
@@ -16920,15 +16990,15 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="190"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="50">
         <v>32</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="50">
@@ -17018,8 +17088,8 @@
       <c r="AH5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" s="151"/>
-      <c r="AJ5" s="164"/>
+      <c r="AI5" s="186"/>
+      <c r="AJ5" s="195"/>
       <c r="AK5" s="51" t="s">
         <v>252</v>
       </c>
@@ -17043,15 +17113,15 @@
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="190"/>
-      <c r="B6" s="178"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="50">
         <v>32</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="50">
@@ -17141,8 +17211,8 @@
       <c r="AH6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="164"/>
+      <c r="AI6" s="186"/>
+      <c r="AJ6" s="195"/>
       <c r="AK6" s="51" t="s">
         <v>252</v>
       </c>
@@ -17166,15 +17236,15 @@
       </c>
     </row>
     <row r="7" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="49" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="50">
         <v>32</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="50">
@@ -17264,8 +17334,8 @@
       <c r="AH7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="164"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="195"/>
       <c r="AK7" s="51" t="s">
         <v>252</v>
       </c>
@@ -17289,15 +17359,15 @@
       </c>
     </row>
     <row r="8" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="190"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="50">
         <v>32</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="50">
@@ -17387,8 +17457,8 @@
       <c r="AH8" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="164"/>
+      <c r="AI8" s="186"/>
+      <c r="AJ8" s="195"/>
       <c r="AK8" s="51" t="s">
         <v>252</v>
       </c>
@@ -17412,15 +17482,15 @@
       </c>
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="190"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="50">
         <v>32</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="50">
@@ -17510,8 +17580,8 @@
       <c r="AH9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI9" s="151"/>
-      <c r="AJ9" s="164"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="195"/>
       <c r="AK9" s="51" t="s">
         <v>252</v>
       </c>
@@ -17535,15 +17605,15 @@
       </c>
     </row>
     <row r="10" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="190"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="50">
         <v>32</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="50">
@@ -17633,8 +17703,8 @@
       <c r="AH10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="165"/>
+      <c r="AI10" s="187"/>
+      <c r="AJ10" s="196"/>
       <c r="AK10" s="51" t="s">
         <v>252</v>
       </c>
@@ -17658,8 +17728,8 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="190"/>
-      <c r="B11" s="186" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -17668,7 +17738,7 @@
       <c r="D11" s="89">
         <v>48</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="89">
@@ -17758,10 +17828,10 @@
       <c r="AH11" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI11" s="156" t="s">
+      <c r="AI11" s="182" t="s">
         <v>283</v>
       </c>
-      <c r="AJ11" s="169" t="s">
+      <c r="AJ11" s="197" t="s">
         <v>284</v>
       </c>
       <c r="AK11" s="91" t="s">
@@ -17787,15 +17857,15 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="190"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="88" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="89">
         <v>48</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="89">
@@ -17885,8 +17955,8 @@
       <c r="AH12" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI12" s="157"/>
-      <c r="AJ12" s="170"/>
+      <c r="AI12" s="183"/>
+      <c r="AJ12" s="198"/>
       <c r="AK12" s="91" t="s">
         <v>252</v>
       </c>
@@ -17910,15 +17980,15 @@
       </c>
     </row>
     <row r="13" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="190"/>
-      <c r="B13" s="187"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="88" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="89">
         <v>48</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="108" t="s">
         <v>292</v>
       </c>
       <c r="F13" s="89">
@@ -18008,8 +18078,8 @@
       <c r="AH13" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="170"/>
+      <c r="AI13" s="183"/>
+      <c r="AJ13" s="198"/>
       <c r="AK13" s="91" t="s">
         <v>252</v>
       </c>
@@ -18033,15 +18103,15 @@
       </c>
     </row>
     <row r="14" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="190"/>
-      <c r="B14" s="187"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="88" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="89">
         <v>48</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="89">
@@ -18131,8 +18201,8 @@
       <c r="AH14" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI14" s="157"/>
-      <c r="AJ14" s="170"/>
+      <c r="AI14" s="183"/>
+      <c r="AJ14" s="198"/>
       <c r="AK14" s="91" t="s">
         <v>252</v>
       </c>
@@ -18156,15 +18226,15 @@
       </c>
     </row>
     <row r="15" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="88" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="D15" s="89">
         <v>48</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="89">
@@ -18254,8 +18324,8 @@
       <c r="AH15" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="170"/>
+      <c r="AI15" s="183"/>
+      <c r="AJ15" s="198"/>
       <c r="AK15" s="91" t="s">
         <v>252</v>
       </c>
@@ -18279,15 +18349,15 @@
       </c>
     </row>
     <row r="16" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="190"/>
-      <c r="B16" s="187"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="88" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="89">
         <v>48</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="89">
@@ -18377,8 +18447,8 @@
       <c r="AH16" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="170"/>
+      <c r="AI16" s="183"/>
+      <c r="AJ16" s="198"/>
       <c r="AK16" s="91" t="s">
         <v>252</v>
       </c>
@@ -18402,15 +18472,15 @@
       </c>
     </row>
     <row r="17" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="190"/>
-      <c r="B17" s="188"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="89">
         <v>48</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="89">
@@ -18500,8 +18570,8 @@
       <c r="AH17" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="171"/>
+      <c r="AI17" s="184"/>
+      <c r="AJ17" s="199"/>
       <c r="AK17" s="91" t="s">
         <v>252</v>
       </c>
@@ -18525,8 +18595,8 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A18" s="190"/>
-      <c r="B18" s="180" t="s">
+      <c r="A18" s="169"/>
+      <c r="B18" s="176" t="s">
         <v>212</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -18535,7 +18605,7 @@
       <c r="D18" s="55">
         <v>48</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="56">
@@ -18616,7 +18686,7 @@
       <c r="AE18" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="AF18" s="159" t="s">
+      <c r="AF18" s="179" t="s">
         <v>219</v>
       </c>
       <c r="AG18" s="55">
@@ -18625,10 +18695,10 @@
       <c r="AH18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI18" s="159" t="s">
+      <c r="AI18" s="179" t="s">
         <v>282</v>
       </c>
-      <c r="AJ18" s="159" t="s">
+      <c r="AJ18" s="179" t="s">
         <v>273</v>
       </c>
       <c r="AK18" s="58" t="s">
@@ -18654,15 +18724,15 @@
       </c>
     </row>
     <row r="19" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A19" s="190"/>
-      <c r="B19" s="181"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="54" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="55">
         <v>48</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="56">
@@ -18743,15 +18813,15 @@
       <c r="AE19" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AF19" s="160"/>
+      <c r="AF19" s="180"/>
       <c r="AG19" s="55">
         <v>1</v>
       </c>
       <c r="AH19" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
+      <c r="AI19" s="180"/>
+      <c r="AJ19" s="180"/>
       <c r="AK19" s="58" t="s">
         <v>252</v>
       </c>
@@ -18775,15 +18845,15 @@
       </c>
     </row>
     <row r="20" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A20" s="190"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="54" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="55">
         <v>48</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="56">
@@ -18864,15 +18934,15 @@
       <c r="AE20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AF20" s="160"/>
+      <c r="AF20" s="180"/>
       <c r="AG20" s="55">
         <v>1</v>
       </c>
       <c r="AH20" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
+      <c r="AI20" s="180"/>
+      <c r="AJ20" s="180"/>
       <c r="AK20" s="58" t="s">
         <v>252</v>
       </c>
@@ -18896,15 +18966,15 @@
       </c>
     </row>
     <row r="21" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A21" s="190"/>
-      <c r="B21" s="181"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="54" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="55">
         <v>48</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="56">
@@ -18985,15 +19055,15 @@
       <c r="AE21" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AF21" s="160"/>
+      <c r="AF21" s="180"/>
       <c r="AG21" s="55">
         <v>1</v>
       </c>
       <c r="AH21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
+      <c r="AI21" s="180"/>
+      <c r="AJ21" s="180"/>
       <c r="AK21" s="58" t="s">
         <v>252</v>
       </c>
@@ -19017,15 +19087,15 @@
       </c>
     </row>
     <row r="22" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A22" s="190"/>
-      <c r="B22" s="181"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="54" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="55">
         <v>48</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="56">
@@ -19106,15 +19176,15 @@
       <c r="AE22" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AF22" s="160"/>
+      <c r="AF22" s="180"/>
       <c r="AG22" s="55">
         <v>1</v>
       </c>
       <c r="AH22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
+      <c r="AI22" s="180"/>
+      <c r="AJ22" s="180"/>
       <c r="AK22" s="58" t="s">
         <v>252</v>
       </c>
@@ -19138,15 +19208,15 @@
       </c>
     </row>
     <row r="23" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A23" s="190"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="54" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="55">
         <v>48</v>
       </c>
-      <c r="E23" s="111" t="s">
+      <c r="E23" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="56">
@@ -19227,15 +19297,15 @@
       <c r="AE23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="160"/>
+      <c r="AF23" s="180"/>
       <c r="AG23" s="55">
         <v>1</v>
       </c>
       <c r="AH23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
+      <c r="AI23" s="180"/>
+      <c r="AJ23" s="180"/>
       <c r="AK23" s="58" t="s">
         <v>252</v>
       </c>
@@ -19259,15 +19329,15 @@
       </c>
     </row>
     <row r="24" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A24" s="190"/>
-      <c r="B24" s="191"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="54" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="55">
         <v>48</v>
       </c>
-      <c r="E24" s="111" t="s">
+      <c r="E24" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="56">
@@ -19348,15 +19418,15 @@
       <c r="AE24" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AF24" s="161"/>
+      <c r="AF24" s="181"/>
       <c r="AG24" s="55">
         <v>1</v>
       </c>
       <c r="AH24" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI24" s="161"/>
-      <c r="AJ24" s="161"/>
+      <c r="AI24" s="181"/>
+      <c r="AJ24" s="181"/>
       <c r="AK24" s="58" t="s">
         <v>252</v>
       </c>
@@ -19380,8 +19450,8 @@
       </c>
     </row>
     <row r="25" spans="1:43" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A25" s="190"/>
-      <c r="B25" s="194" t="s">
+      <c r="A25" s="169"/>
+      <c r="B25" s="155" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="61" t="s">
@@ -19390,7 +19460,7 @@
       <c r="D25" s="62">
         <v>48</v>
       </c>
-      <c r="E25" s="112" t="s">
+      <c r="E25" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="63">
@@ -19471,7 +19541,7 @@
       <c r="AE25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="AF25" s="172" t="s">
+      <c r="AF25" s="146" t="s">
         <v>219</v>
       </c>
       <c r="AG25" s="62">
@@ -19480,10 +19550,10 @@
       <c r="AH25" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI25" s="172" t="s">
+      <c r="AI25" s="146" t="s">
         <v>298</v>
       </c>
-      <c r="AJ25" s="172" t="s">
+      <c r="AJ25" s="146" t="s">
         <v>273</v>
       </c>
       <c r="AK25" s="65" t="s">
@@ -19509,15 +19579,15 @@
       </c>
     </row>
     <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A26" s="190"/>
-      <c r="B26" s="175"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="61" t="s">
         <v>111</v>
       </c>
       <c r="D26" s="62">
         <v>48</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="63">
@@ -19598,15 +19668,15 @@
       <c r="AE26" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="AF26" s="148"/>
+      <c r="AF26" s="147"/>
       <c r="AG26" s="62">
         <v>1</v>
       </c>
       <c r="AH26" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="148"/>
-      <c r="AJ26" s="148"/>
+      <c r="AI26" s="147"/>
+      <c r="AJ26" s="147"/>
       <c r="AK26" s="65" t="s">
         <v>252</v>
       </c>
@@ -19630,15 +19700,15 @@
       </c>
     </row>
     <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A27" s="190"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="61" t="s">
         <v>112</v>
       </c>
       <c r="D27" s="62">
         <v>48</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="63">
@@ -19719,15 +19789,15 @@
       <c r="AE27" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AF27" s="148"/>
+      <c r="AF27" s="147"/>
       <c r="AG27" s="62">
         <v>1</v>
       </c>
       <c r="AH27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="148"/>
+      <c r="AI27" s="147"/>
+      <c r="AJ27" s="147"/>
       <c r="AK27" s="65" t="s">
         <v>252</v>
       </c>
@@ -19751,15 +19821,15 @@
       </c>
     </row>
     <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A28" s="190"/>
-      <c r="B28" s="175"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="62">
         <v>48</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="63">
@@ -19840,15 +19910,15 @@
       <c r="AE28" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AF28" s="148"/>
+      <c r="AF28" s="147"/>
       <c r="AG28" s="62">
         <v>1</v>
       </c>
       <c r="AH28" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="147"/>
       <c r="AK28" s="65" t="s">
         <v>252</v>
       </c>
@@ -19872,15 +19942,15 @@
       </c>
     </row>
     <row r="29" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A29" s="190"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="61" t="s">
         <v>114</v>
       </c>
       <c r="D29" s="62">
         <v>48</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="63">
@@ -19961,15 +20031,15 @@
       <c r="AE29" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="AF29" s="148"/>
+      <c r="AF29" s="147"/>
       <c r="AG29" s="62">
         <v>1</v>
       </c>
       <c r="AH29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="148"/>
+      <c r="AI29" s="147"/>
+      <c r="AJ29" s="147"/>
       <c r="AK29" s="65" t="s">
         <v>252</v>
       </c>
@@ -19993,15 +20063,15 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A30" s="190"/>
-      <c r="B30" s="175"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="61" t="s">
         <v>115</v>
       </c>
       <c r="D30" s="62">
         <v>48</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="63">
@@ -20082,15 +20152,15 @@
       <c r="AE30" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AF30" s="148"/>
+      <c r="AF30" s="147"/>
       <c r="AG30" s="62">
         <v>1</v>
       </c>
       <c r="AH30" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="148"/>
+      <c r="AI30" s="147"/>
+      <c r="AJ30" s="147"/>
       <c r="AK30" s="65" t="s">
         <v>252</v>
       </c>
@@ -20114,15 +20184,15 @@
       </c>
     </row>
     <row r="31" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A31" s="190"/>
-      <c r="B31" s="176"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="61" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="62">
         <v>48</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="63">
@@ -20203,15 +20273,15 @@
       <c r="AE31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AF31" s="149"/>
+      <c r="AF31" s="148"/>
       <c r="AG31" s="62">
         <v>1</v>
       </c>
       <c r="AH31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
       <c r="AK31" s="65" t="s">
         <v>252</v>
       </c>
@@ -20235,8 +20305,8 @@
       </c>
     </row>
     <row r="32" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A32" s="190"/>
-      <c r="B32" s="195" t="s">
+      <c r="A32" s="169"/>
+      <c r="B32" s="158" t="s">
         <v>291</v>
       </c>
       <c r="C32" s="68" t="s">
@@ -20245,7 +20315,7 @@
       <c r="D32" s="69">
         <v>48</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="111" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="70">
@@ -20290,7 +20360,7 @@
       <c r="S32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T32" s="166" t="s">
+      <c r="T32" s="161" t="s">
         <v>232</v>
       </c>
       <c r="U32" s="69">
@@ -20326,7 +20396,7 @@
       <c r="AE32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF32" s="166" t="s">
+      <c r="AF32" s="161" t="s">
         <v>219</v>
       </c>
       <c r="AG32" s="69">
@@ -20335,10 +20405,10 @@
       <c r="AH32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI32" s="166" t="s">
+      <c r="AI32" s="161" t="s">
         <v>280</v>
       </c>
-      <c r="AJ32" s="166" t="s">
+      <c r="AJ32" s="161" t="s">
         <v>299</v>
       </c>
       <c r="AK32" s="72" t="s">
@@ -20364,15 +20434,15 @@
       </c>
     </row>
     <row r="33" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A33" s="190"/>
-      <c r="B33" s="196"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="69">
         <v>48</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="111" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="70">
@@ -20417,7 +20487,7 @@
       <c r="S33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T33" s="167"/>
+      <c r="T33" s="162"/>
       <c r="U33" s="69">
         <v>1</v>
       </c>
@@ -20451,15 +20521,15 @@
       <c r="AE33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF33" s="167"/>
+      <c r="AF33" s="162"/>
       <c r="AG33" s="69">
         <v>1</v>
       </c>
       <c r="AH33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI33" s="167"/>
-      <c r="AJ33" s="167"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="162"/>
       <c r="AK33" s="72" t="s">
         <v>252</v>
       </c>
@@ -20483,15 +20553,15 @@
       </c>
     </row>
     <row r="34" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A34" s="190"/>
-      <c r="B34" s="196"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="68" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="69">
         <v>48</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="111" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="70">
@@ -20536,7 +20606,7 @@
       <c r="S34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T34" s="167"/>
+      <c r="T34" s="162"/>
       <c r="U34" s="69">
         <v>1</v>
       </c>
@@ -20570,15 +20640,15 @@
       <c r="AE34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AF34" s="198"/>
+      <c r="AF34" s="164"/>
       <c r="AG34" s="69">
         <v>1</v>
       </c>
       <c r="AH34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI34" s="167"/>
-      <c r="AJ34" s="167"/>
+      <c r="AI34" s="162"/>
+      <c r="AJ34" s="162"/>
       <c r="AK34" s="72" t="s">
         <v>252</v>
       </c>
@@ -20602,15 +20672,15 @@
       </c>
     </row>
     <row r="35" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A35" s="190"/>
-      <c r="B35" s="196"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="68" t="s">
         <v>107</v>
       </c>
       <c r="D35" s="69">
         <v>48</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="111" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="70">
@@ -20655,7 +20725,7 @@
       <c r="S35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T35" s="167"/>
+      <c r="T35" s="162"/>
       <c r="U35" s="69">
         <v>1</v>
       </c>
@@ -20689,7 +20759,7 @@
       <c r="AE35" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="AF35" s="166" t="s">
+      <c r="AF35" s="161" t="s">
         <v>219</v>
       </c>
       <c r="AG35" s="69">
@@ -20698,8 +20768,8 @@
       <c r="AH35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI35" s="167"/>
-      <c r="AJ35" s="167"/>
+      <c r="AI35" s="162"/>
+      <c r="AJ35" s="162"/>
       <c r="AK35" s="72" t="s">
         <v>252</v>
       </c>
@@ -20723,15 +20793,15 @@
       </c>
     </row>
     <row r="36" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A36" s="190"/>
-      <c r="B36" s="196"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="68" t="s">
         <v>108</v>
       </c>
       <c r="D36" s="69">
         <v>48</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="111" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="70">
@@ -20776,7 +20846,7 @@
       <c r="S36" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T36" s="167"/>
+      <c r="T36" s="162"/>
       <c r="U36" s="69">
         <v>1</v>
       </c>
@@ -20810,15 +20880,15 @@
       <c r="AE36" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="AF36" s="167"/>
+      <c r="AF36" s="162"/>
       <c r="AG36" s="69">
         <v>1</v>
       </c>
       <c r="AH36" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AI36" s="167"/>
-      <c r="AJ36" s="167"/>
+      <c r="AI36" s="162"/>
+      <c r="AJ36" s="162"/>
       <c r="AK36" s="72" t="s">
         <v>252</v>
       </c>
@@ -20842,15 +20912,15 @@
       </c>
     </row>
     <row r="37" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A37" s="190"/>
-      <c r="B37" s="197"/>
+      <c r="A37" s="169"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="75" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="76">
         <v>48</v>
       </c>
-      <c r="E37" s="114" t="s">
+      <c r="E37" s="112" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="76">
@@ -20895,7 +20965,7 @@
       <c r="S37" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="T37" s="168"/>
+      <c r="T37" s="163"/>
       <c r="U37" s="76">
         <v>1</v>
       </c>
@@ -20929,15 +20999,15 @@
       <c r="AE37" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="AF37" s="168"/>
+      <c r="AF37" s="163"/>
       <c r="AG37" s="76">
         <v>1</v>
       </c>
       <c r="AH37" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AI37" s="168"/>
-      <c r="AJ37" s="168"/>
+      <c r="AI37" s="163"/>
+      <c r="AJ37" s="163"/>
       <c r="AK37" s="78" t="s">
         <v>252</v>
       </c>
@@ -20961,10 +21031,10 @@
       </c>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="175" t="s">
+      <c r="B38" s="156" t="s">
         <v>295</v>
       </c>
       <c r="C38" s="104" t="s">
@@ -20973,7 +21043,7 @@
       <c r="D38" s="64">
         <v>32</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="113" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="64">
@@ -21063,10 +21133,10 @@
       <c r="AH38" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AI38" s="147" t="s">
+      <c r="AI38" s="200" t="s">
         <v>271</v>
       </c>
-      <c r="AJ38" s="147" t="s">
+      <c r="AJ38" s="200" t="s">
         <v>274</v>
       </c>
       <c r="AK38" s="105" t="s">
@@ -21092,15 +21162,15 @@
       </c>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="174"/>
-      <c r="B39" s="175"/>
+      <c r="A39" s="189"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="62">
         <v>32</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="62">
@@ -21190,8 +21260,8 @@
       <c r="AH39" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI39" s="148"/>
-      <c r="AJ39" s="148"/>
+      <c r="AI39" s="147"/>
+      <c r="AJ39" s="147"/>
       <c r="AK39" s="65" t="s">
         <v>252</v>
       </c>
@@ -21215,15 +21285,15 @@
       </c>
     </row>
     <row r="40" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="174"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="62">
         <v>32</v>
       </c>
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="62">
@@ -21313,8 +21383,8 @@
       <c r="AH40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI40" s="148"/>
-      <c r="AJ40" s="148"/>
+      <c r="AI40" s="147"/>
+      <c r="AJ40" s="147"/>
       <c r="AK40" s="65" t="s">
         <v>252</v>
       </c>
@@ -21338,15 +21408,15 @@
       </c>
     </row>
     <row r="41" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="174"/>
-      <c r="B41" s="176"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="62">
         <v>32</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="62">
@@ -21436,8 +21506,8 @@
       <c r="AH41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI41" s="149"/>
-      <c r="AJ41" s="149"/>
+      <c r="AI41" s="148"/>
+      <c r="AJ41" s="148"/>
       <c r="AK41" s="65" t="s">
         <v>252</v>
       </c>
@@ -21461,8 +21531,8 @@
       </c>
     </row>
     <row r="42" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="174"/>
-      <c r="B42" s="177" t="s">
+      <c r="A42" s="189"/>
+      <c r="B42" s="170" t="s">
         <v>293</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -21471,7 +21541,7 @@
       <c r="D42" s="50">
         <v>32</v>
       </c>
-      <c r="E42" s="109" t="s">
+      <c r="E42" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F42" s="50">
@@ -21561,10 +21631,10 @@
       <c r="AH42" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI42" s="150" t="s">
+      <c r="AI42" s="185" t="s">
         <v>271</v>
       </c>
-      <c r="AJ42" s="150" t="s">
+      <c r="AJ42" s="185" t="s">
         <v>274</v>
       </c>
       <c r="AK42" s="51" t="s">
@@ -21590,15 +21660,15 @@
       </c>
     </row>
     <row r="43" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="174"/>
-      <c r="B43" s="178"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="50">
         <v>32</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="50">
@@ -21688,8 +21758,8 @@
       <c r="AH43" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI43" s="151"/>
-      <c r="AJ43" s="151"/>
+      <c r="AI43" s="186"/>
+      <c r="AJ43" s="186"/>
       <c r="AK43" s="51" t="s">
         <v>252</v>
       </c>
@@ -21713,15 +21783,15 @@
       </c>
     </row>
     <row r="44" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="174"/>
-      <c r="B44" s="178"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="49" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="50">
         <v>32</v>
       </c>
-      <c r="E44" s="109" t="s">
+      <c r="E44" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="50">
@@ -21811,8 +21881,8 @@
       <c r="AH44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI44" s="151"/>
-      <c r="AJ44" s="151"/>
+      <c r="AI44" s="186"/>
+      <c r="AJ44" s="186"/>
       <c r="AK44" s="51" t="s">
         <v>252</v>
       </c>
@@ -21836,15 +21906,15 @@
       </c>
     </row>
     <row r="45" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="174"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="189"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="50">
         <v>32</v>
       </c>
-      <c r="E45" s="109" t="s">
+      <c r="E45" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="50">
@@ -21934,8 +22004,8 @@
       <c r="AH45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI45" s="151"/>
-      <c r="AJ45" s="151"/>
+      <c r="AI45" s="186"/>
+      <c r="AJ45" s="186"/>
       <c r="AK45" s="51" t="s">
         <v>252</v>
       </c>
@@ -21959,261 +22029,267 @@
       </c>
     </row>
     <row r="46" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="174"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="50">
-        <v>32</v>
+      <c r="A46" s="189"/>
+      <c r="B46" s="176" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="55">
+        <v>48</v>
       </c>
       <c r="E46" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="50">
-        <v>32</v>
-      </c>
-      <c r="G46" s="50">
-        <v>4</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="50" t="s">
+      <c r="F46" s="55">
+        <v>64</v>
+      </c>
+      <c r="G46" s="55">
+        <v>8</v>
+      </c>
+      <c r="H46" s="55">
+        <v>56</v>
+      </c>
+      <c r="I46" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="50">
-        <v>6</v>
-      </c>
-      <c r="L46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" s="50">
-        <v>2</v>
-      </c>
-      <c r="P46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="50">
-        <v>1</v>
-      </c>
-      <c r="R46" s="50">
-        <v>1</v>
-      </c>
-      <c r="S46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="T46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="U46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="W46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="X46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y46" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB46" s="50">
-        <v>2</v>
-      </c>
-      <c r="AC46" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD46" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH46" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI46" s="151"/>
-      <c r="AJ46" s="151"/>
-      <c r="AK46" s="51" t="s">
+      <c r="J46" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K46" s="55">
+        <v>7</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="O46" s="55">
+        <v>2</v>
+      </c>
+      <c r="P46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="55">
+        <v>2</v>
+      </c>
+      <c r="R46" s="55">
+        <v>2</v>
+      </c>
+      <c r="S46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="V46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="W46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="X46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA46" s="55">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="55">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD46" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF46" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG46" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI46" s="179" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ46" s="179" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK46" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AL46" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM46" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN46" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO46" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP46" s="53">
-        <v>5000</v>
-      </c>
-      <c r="AQ46" s="53">
-        <v>5000</v>
+      <c r="AL46" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM46" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN46" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO46" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP46" s="60">
+        <v>160</v>
+      </c>
+      <c r="AQ46" s="60">
+        <v>1600</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="174"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="50">
-        <v>32</v>
+      <c r="A47" s="189"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="55">
+        <v>48</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="50">
-        <v>32</v>
-      </c>
-      <c r="G47" s="50">
-        <v>4</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="50" t="s">
+      <c r="F47" s="55">
+        <v>64</v>
+      </c>
+      <c r="G47" s="55">
+        <v>8</v>
+      </c>
+      <c r="H47" s="55">
+        <v>40</v>
+      </c>
+      <c r="I47" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="50">
-        <v>6</v>
-      </c>
-      <c r="L47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O47" s="50">
-        <v>2</v>
-      </c>
-      <c r="P47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="50">
-        <v>1</v>
-      </c>
-      <c r="R47" s="50">
-        <v>1</v>
-      </c>
-      <c r="S47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="T47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="U47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="X47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y47" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB47" s="50">
-        <v>2</v>
-      </c>
-      <c r="AC47" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD47" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI47" s="152"/>
-      <c r="AJ47" s="152"/>
-      <c r="AK47" s="51" t="s">
+      <c r="J47" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="55">
+        <v>7</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" s="55">
+        <v>2</v>
+      </c>
+      <c r="P47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="55">
+        <v>2</v>
+      </c>
+      <c r="R47" s="55">
+        <v>2</v>
+      </c>
+      <c r="S47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="V47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="X47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA47" s="55">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="55">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD47" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF47" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG47" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI47" s="180"/>
+      <c r="AJ47" s="180"/>
+      <c r="AK47" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AL47" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM47" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN47" s="50" t="s">
+      <c r="AL47" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM47" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN47" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AO47" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP47" s="53">
-        <v>5000</v>
-      </c>
-      <c r="AQ47" s="53">
-        <v>5000</v>
+      <c r="AO47" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP47" s="60">
+        <v>250</v>
+      </c>
+      <c r="AQ47" s="60">
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="174"/>
-      <c r="B48" s="180" t="s">
-        <v>294</v>
-      </c>
+      <c r="A48" s="189"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="55">
         <v>48</v>
       </c>
-      <c r="E48" s="111" t="s">
+      <c r="E48" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="55">
@@ -22223,7 +22299,7 @@
         <v>8</v>
       </c>
       <c r="H48" s="55">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I48" s="55" t="s">
         <v>72</v>
@@ -22274,13 +22350,13 @@
         <v>50</v>
       </c>
       <c r="Y48" s="55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z48" s="55" t="s">
         <v>50</v>
       </c>
       <c r="AA48" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="55">
         <v>2</v>
@@ -22303,23 +22379,19 @@
       <c r="AH48" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI48" s="159" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ48" s="159" t="s">
-        <v>274</v>
-      </c>
+      <c r="AI48" s="180"/>
+      <c r="AJ48" s="180"/>
       <c r="AK48" s="58" t="s">
         <v>252</v>
       </c>
       <c r="AL48" s="80" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="AM48" s="55" t="s">
         <v>188</v>
       </c>
       <c r="AN48" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO48" s="59" t="s">
         <v>66</v>
@@ -22332,15 +22404,15 @@
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="174"/>
-      <c r="B49" s="181"/>
+      <c r="A49" s="189"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="55">
         <v>48</v>
       </c>
-      <c r="E49" s="111" t="s">
+      <c r="E49" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="55">
@@ -22350,7 +22422,7 @@
         <v>8</v>
       </c>
       <c r="H49" s="55">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I49" s="55" t="s">
         <v>72</v>
@@ -22380,7 +22452,7 @@
         <v>2</v>
       </c>
       <c r="R49" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S49" s="55" t="s">
         <v>50</v>
@@ -22401,13 +22473,13 @@
         <v>50</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Z49" s="55" t="s">
         <v>50</v>
       </c>
       <c r="AA49" s="55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="55">
         <v>2</v>
@@ -22430,22 +22502,22 @@
       <c r="AH49" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI49" s="160"/>
-      <c r="AJ49" s="160"/>
+      <c r="AI49" s="180"/>
+      <c r="AJ49" s="180"/>
       <c r="AK49" s="58" t="s">
         <v>252</v>
       </c>
       <c r="AL49" s="80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM49" s="55" t="s">
         <v>188</v>
       </c>
       <c r="AN49" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO49" s="59" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="AP49" s="60">
         <v>250</v>
@@ -22455,15 +22527,15 @@
       </c>
     </row>
     <row r="50" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="174"/>
-      <c r="B50" s="181"/>
+      <c r="A50" s="189"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="55">
         <v>48</v>
       </c>
-      <c r="E50" s="111" t="s">
+      <c r="E50" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F50" s="55">
@@ -22473,7 +22545,7 @@
         <v>8</v>
       </c>
       <c r="H50" s="55">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I50" s="55" t="s">
         <v>72</v>
@@ -22503,7 +22575,7 @@
         <v>2</v>
       </c>
       <c r="R50" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="55" t="s">
         <v>50</v>
@@ -22524,13 +22596,13 @@
         <v>50</v>
       </c>
       <c r="Y50" s="55" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Z50" s="55" t="s">
         <v>50</v>
       </c>
       <c r="AA50" s="55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="55">
         <v>2</v>
@@ -22553,40 +22625,40 @@
       <c r="AH50" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI50" s="160"/>
-      <c r="AJ50" s="160"/>
+      <c r="AI50" s="180"/>
+      <c r="AJ50" s="180"/>
       <c r="AK50" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AL50" s="80" t="s">
-        <v>99</v>
+      <c r="AL50" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="AM50" s="55" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="AN50" s="55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO50" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AP50" s="60">
-        <v>160</v>
+        <v>3000</v>
       </c>
       <c r="AQ50" s="60">
-        <v>1600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="174"/>
-      <c r="B51" s="181"/>
+      <c r="A51" s="189"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="55">
         <v>48</v>
       </c>
-      <c r="E51" s="111" t="s">
+      <c r="E51" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F51" s="55">
@@ -22596,7 +22668,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I51" s="55" t="s">
         <v>72</v>
@@ -22647,7 +22719,7 @@
         <v>50</v>
       </c>
       <c r="Y51" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z51" s="55" t="s">
         <v>50</v>
@@ -22676,40 +22748,40 @@
       <c r="AH51" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI51" s="160"/>
-      <c r="AJ51" s="160"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="180"/>
       <c r="AK51" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AL51" s="80" t="s">
-        <v>68</v>
+      <c r="AL51" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="AM51" s="55" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="AN51" s="55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AO51" s="59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AP51" s="60">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AQ51" s="60">
-        <v>2500</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="174"/>
-      <c r="B52" s="181"/>
+      <c r="A52" s="189"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="54" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="55">
         <v>48</v>
       </c>
-      <c r="E52" s="111" t="s">
+      <c r="E52" s="109" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="55">
@@ -22719,7 +22791,7 @@
         <v>8</v>
       </c>
       <c r="H52" s="55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I52" s="55" t="s">
         <v>72</v>
@@ -22770,7 +22842,7 @@
         <v>50</v>
       </c>
       <c r="Y52" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z52" s="55" t="s">
         <v>50</v>
@@ -22799,19 +22871,19 @@
       <c r="AH52" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AI52" s="160"/>
-      <c r="AJ52" s="160"/>
+      <c r="AI52" s="181"/>
+      <c r="AJ52" s="181"/>
       <c r="AK52" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AL52" s="81" t="s">
-        <v>246</v>
+      <c r="AL52" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="AM52" s="55" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN52" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO52" s="59" t="s">
         <v>64</v>
@@ -22823,264 +22895,264 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="174"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="55">
+    <row r="53" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A53" s="189"/>
+      <c r="B53" s="190" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="83">
         <v>48</v>
       </c>
-      <c r="E53" s="111" t="s">
+      <c r="E53" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="55">
-        <v>64</v>
-      </c>
-      <c r="G53" s="55">
-        <v>8</v>
-      </c>
-      <c r="H53" s="55">
-        <v>23</v>
-      </c>
-      <c r="I53" s="55" t="s">
+      <c r="F53" s="83">
+        <v>128</v>
+      </c>
+      <c r="G53" s="83">
+        <v>16</v>
+      </c>
+      <c r="H53" s="83">
+        <v>86</v>
+      </c>
+      <c r="I53" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="55" t="s">
+      <c r="J53" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="55">
+      <c r="K53" s="83">
         <v>7</v>
       </c>
-      <c r="L53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="M53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="O53" s="55">
-        <v>2</v>
-      </c>
-      <c r="P53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q53" s="55">
-        <v>2</v>
-      </c>
-      <c r="R53" s="55">
-        <v>1</v>
-      </c>
-      <c r="S53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="T53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="U53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="V53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="W53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="X53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y53" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA53" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="55">
-        <v>2</v>
-      </c>
-      <c r="AC53" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD53" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF53" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG53" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI53" s="160"/>
-      <c r="AJ53" s="160"/>
-      <c r="AK53" s="58" t="s">
+      <c r="L53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="N53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" s="83">
+        <v>4</v>
+      </c>
+      <c r="P53" s="83">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="83">
+        <v>2</v>
+      </c>
+      <c r="R53" s="83">
+        <v>2</v>
+      </c>
+      <c r="S53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" s="165" t="s">
+        <v>232</v>
+      </c>
+      <c r="U53" s="83">
+        <v>1</v>
+      </c>
+      <c r="V53" s="83">
+        <v>2</v>
+      </c>
+      <c r="W53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y53" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z53" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA53" s="83">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="83">
+        <v>3</v>
+      </c>
+      <c r="AC53" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD53" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF53" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG53" s="83">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI53" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ53" s="165" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK53" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="AL53" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM53" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN53" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO53" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP53" s="60">
-        <v>32</v>
-      </c>
-      <c r="AQ53" s="60">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="174"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="55">
+      <c r="AL53" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM53" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN53" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO53" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP53" s="87">
+        <v>90</v>
+      </c>
+      <c r="AQ53" s="87">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A54" s="189"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="83">
         <v>48</v>
       </c>
-      <c r="E54" s="111" t="s">
+      <c r="E54" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="55">
-        <v>64</v>
-      </c>
-      <c r="G54" s="55">
-        <v>8</v>
-      </c>
-      <c r="H54" s="55">
-        <v>23</v>
-      </c>
-      <c r="I54" s="55" t="s">
+      <c r="F54" s="83">
+        <v>128</v>
+      </c>
+      <c r="G54" s="83">
+        <v>16</v>
+      </c>
+      <c r="H54" s="83">
+        <v>50</v>
+      </c>
+      <c r="I54" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="J54" s="55" t="s">
+      <c r="J54" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="55">
+      <c r="K54" s="83">
         <v>7</v>
       </c>
-      <c r="L54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="M54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="O54" s="55">
-        <v>2</v>
-      </c>
-      <c r="P54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q54" s="55">
-        <v>2</v>
-      </c>
-      <c r="R54" s="55">
-        <v>1</v>
-      </c>
-      <c r="S54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="T54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="U54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="V54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="W54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="X54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y54" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA54" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="55">
-        <v>2</v>
-      </c>
-      <c r="AC54" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD54" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF54" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG54" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI54" s="161"/>
-      <c r="AJ54" s="161"/>
-      <c r="AK54" s="58" t="s">
+      <c r="L54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="O54" s="83">
+        <v>4</v>
+      </c>
+      <c r="P54" s="83">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="83">
+        <v>2</v>
+      </c>
+      <c r="R54" s="83">
+        <v>2</v>
+      </c>
+      <c r="S54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="T54" s="166"/>
+      <c r="U54" s="83">
+        <v>1</v>
+      </c>
+      <c r="V54" s="83">
+        <v>2</v>
+      </c>
+      <c r="W54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="X54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y54" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z54" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA54" s="83">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="83">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD54" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF54" s="166"/>
+      <c r="AG54" s="83">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI54" s="166"/>
+      <c r="AJ54" s="166"/>
+      <c r="AK54" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="AL54" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM54" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN54" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO54" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP54" s="60">
-        <v>3000</v>
-      </c>
-      <c r="AQ54" s="60">
-        <v>3000</v>
+      <c r="AL54" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM54" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN54" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO54" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP54" s="87">
+        <v>160</v>
+      </c>
+      <c r="AQ54" s="87">
+        <v>1600</v>
       </c>
     </row>
     <row r="55" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A55" s="174"/>
-      <c r="B55" s="182" t="s">
-        <v>215</v>
-      </c>
+      <c r="A55" s="189"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D55" s="83">
         <v>48</v>
       </c>
-      <c r="E55" s="116" t="s">
+      <c r="E55" s="114" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="83">
@@ -23090,7 +23162,7 @@
         <v>16</v>
       </c>
       <c r="H55" s="83">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I55" s="83" t="s">
         <v>72</v>
@@ -23111,7 +23183,7 @@
         <v>50</v>
       </c>
       <c r="O55" s="83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P55" s="83">
         <v>2</v>
@@ -23125,9 +23197,7 @@
       <c r="S55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="T55" s="153" t="s">
-        <v>232</v>
-      </c>
+      <c r="T55" s="167"/>
       <c r="U55" s="83">
         <v>1</v>
       </c>
@@ -23141,13 +23211,13 @@
         <v>50</v>
       </c>
       <c r="Y55" s="83" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z55" s="83" t="s">
         <v>159</v>
       </c>
       <c r="AA55" s="83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB55" s="83">
         <v>3</v>
@@ -23161,26 +23231,20 @@
       <c r="AE55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AF55" s="153" t="s">
-        <v>219</v>
-      </c>
+      <c r="AF55" s="167"/>
       <c r="AG55" s="83">
         <v>1</v>
       </c>
       <c r="AH55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AI55" s="153" t="s">
-        <v>280</v>
-      </c>
-      <c r="AJ55" s="153" t="s">
-        <v>274</v>
-      </c>
+      <c r="AI55" s="167"/>
+      <c r="AJ55" s="167"/>
       <c r="AK55" s="85" t="s">
         <v>252</v>
       </c>
       <c r="AL55" s="83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AM55" s="83" t="s">
         <v>188</v>
@@ -23192,262 +23256,272 @@
         <v>66</v>
       </c>
       <c r="AP55" s="87">
+        <v>250</v>
+      </c>
+      <c r="AQ55" s="87">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A56" s="189"/>
+      <c r="B56" s="173" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="89">
+        <v>48</v>
+      </c>
+      <c r="E56" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="89">
+        <v>256</v>
+      </c>
+      <c r="G56" s="89">
+        <v>32</v>
+      </c>
+      <c r="H56" s="89">
+        <v>88</v>
+      </c>
+      <c r="I56" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" s="89">
+        <v>7</v>
+      </c>
+      <c r="L56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" s="89">
+        <v>4</v>
+      </c>
+      <c r="P56" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="89">
+        <v>2</v>
+      </c>
+      <c r="R56" s="89">
+        <v>2</v>
+      </c>
+      <c r="S56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="T56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="V56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="W56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="X56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y56" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z56" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA56" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD56" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE56" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF56" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG56" s="89">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI56" s="182" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ56" s="182" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK56" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL56" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM56" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN56" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO56" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP56" s="93">
         <v>90</v>
       </c>
-      <c r="AQ55" s="87">
+      <c r="AQ56" s="93">
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A56" s="174"/>
-      <c r="B56" s="183"/>
-      <c r="C56" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="83">
+    <row r="57" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A57" s="189"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="89">
         <v>48</v>
       </c>
-      <c r="E56" s="116" t="s">
+      <c r="E57" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="83">
-        <v>128</v>
-      </c>
-      <c r="G56" s="83">
-        <v>16</v>
-      </c>
-      <c r="H56" s="83">
-        <v>50</v>
-      </c>
-      <c r="I56" s="83" t="s">
+      <c r="F57" s="89">
+        <v>256</v>
+      </c>
+      <c r="G57" s="89">
+        <v>32</v>
+      </c>
+      <c r="H57" s="89">
         <v>72</v>
       </c>
-      <c r="J56" s="83" t="s">
+      <c r="I57" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="K56" s="83">
+      <c r="K57" s="89">
         <v>7</v>
       </c>
-      <c r="L56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="M56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="N56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="O56" s="83">
+      <c r="L57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57" s="89">
         <v>4</v>
       </c>
-      <c r="P56" s="83">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="83">
-        <v>2</v>
-      </c>
-      <c r="R56" s="83">
-        <v>2</v>
-      </c>
-      <c r="S56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="T56" s="154"/>
-      <c r="U56" s="83">
-        <v>1</v>
-      </c>
-      <c r="V56" s="83">
-        <v>2</v>
-      </c>
-      <c r="W56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="X56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y56" s="83" t="s">
+      <c r="P57" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="89">
+        <v>2</v>
+      </c>
+      <c r="R57" s="89">
+        <v>2</v>
+      </c>
+      <c r="S57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="T57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="U57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="W57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="X57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y57" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="Z56" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA56" s="83">
-        <v>5</v>
-      </c>
-      <c r="AB56" s="83">
+      <c r="Z57" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA57" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="89">
         <v>3</v>
       </c>
-      <c r="AC56" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD56" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF56" s="154"/>
-      <c r="AG56" s="83">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI56" s="154"/>
-      <c r="AJ56" s="154"/>
-      <c r="AK56" s="85" t="s">
+      <c r="AC57" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD57" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE57" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF57" s="183"/>
+      <c r="AG57" s="89">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI57" s="183"/>
+      <c r="AJ57" s="183"/>
+      <c r="AK57" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="AL56" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM56" s="83" t="s">
+      <c r="AL57" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM57" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="AN56" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO56" s="86" t="s">
+      <c r="AN57" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO57" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="AP56" s="87">
-        <v>160</v>
-      </c>
-      <c r="AQ56" s="87">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A57" s="174"/>
-      <c r="B57" s="184"/>
-      <c r="C57" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="83">
-        <v>48</v>
-      </c>
-      <c r="E57" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="83">
-        <v>128</v>
-      </c>
-      <c r="G57" s="83">
-        <v>16</v>
-      </c>
-      <c r="H57" s="83">
-        <v>36</v>
-      </c>
-      <c r="I57" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="J57" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="K57" s="83">
-        <v>7</v>
-      </c>
-      <c r="L57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="M57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="N57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="O57" s="83">
-        <v>2</v>
-      </c>
-      <c r="P57" s="83">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="83">
-        <v>2</v>
-      </c>
-      <c r="R57" s="83">
-        <v>2</v>
-      </c>
-      <c r="S57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="T57" s="155"/>
-      <c r="U57" s="83">
-        <v>1</v>
-      </c>
-      <c r="V57" s="83">
-        <v>2</v>
-      </c>
-      <c r="W57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="X57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y57" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z57" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA57" s="83">
-        <v>3</v>
-      </c>
-      <c r="AB57" s="83">
-        <v>3</v>
-      </c>
-      <c r="AC57" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD57" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF57" s="155"/>
-      <c r="AG57" s="83">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI57" s="155"/>
-      <c r="AJ57" s="155"/>
-      <c r="AK57" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL57" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM57" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN57" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO57" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP57" s="87">
-        <v>250</v>
-      </c>
-      <c r="AQ57" s="87">
-        <v>2500</v>
+      <c r="AP57" s="93">
+        <v>119</v>
+      </c>
+      <c r="AQ57" s="93">
+        <v>1190</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A58" s="174"/>
-      <c r="B58" s="186" t="s">
-        <v>216</v>
-      </c>
+      <c r="A58" s="189"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" s="89">
         <v>48</v>
       </c>
-      <c r="E58" s="110" t="s">
+      <c r="E58" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="89">
@@ -23457,7 +23531,7 @@
         <v>32</v>
       </c>
       <c r="H58" s="89">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I58" s="89" t="s">
         <v>72</v>
@@ -23508,7 +23582,7 @@
         <v>50</v>
       </c>
       <c r="Y58" s="89" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z58" s="89" t="s">
         <v>162</v>
@@ -23526,28 +23600,22 @@
         <v>62</v>
       </c>
       <c r="AE58" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF58" s="156" t="s">
-        <v>219</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AF58" s="183"/>
       <c r="AG58" s="89">
         <v>1</v>
       </c>
       <c r="AH58" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI58" s="156" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ58" s="156" t="s">
-        <v>301</v>
-      </c>
+      <c r="AI58" s="183"/>
+      <c r="AJ58" s="183"/>
       <c r="AK58" s="91" t="s">
         <v>252</v>
       </c>
       <c r="AL58" s="89" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM58" s="89" t="s">
         <v>188</v>
@@ -23559,22 +23627,22 @@
         <v>66</v>
       </c>
       <c r="AP58" s="93">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AQ58" s="93">
-        <v>900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A59" s="174"/>
-      <c r="B59" s="187"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D59" s="89">
         <v>48</v>
       </c>
-      <c r="E59" s="110" t="s">
+      <c r="E59" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="89">
@@ -23584,7 +23652,7 @@
         <v>32</v>
       </c>
       <c r="H59" s="89">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I59" s="89" t="s">
         <v>72</v>
@@ -23653,49 +23721,49 @@
         <v>62</v>
       </c>
       <c r="AE59" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF59" s="157"/>
+        <v>156</v>
+      </c>
+      <c r="AF59" s="183"/>
       <c r="AG59" s="89">
         <v>1</v>
       </c>
       <c r="AH59" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI59" s="157"/>
-      <c r="AJ59" s="157"/>
+      <c r="AI59" s="183"/>
+      <c r="AJ59" s="183"/>
       <c r="AK59" s="91" t="s">
         <v>252</v>
       </c>
       <c r="AL59" s="89" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="AM59" s="89" t="s">
         <v>188</v>
       </c>
       <c r="AN59" s="89" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO59" s="92" t="s">
         <v>66</v>
       </c>
       <c r="AP59" s="93">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="AQ59" s="93">
-        <v>1190</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A60" s="174"/>
-      <c r="B60" s="187"/>
+      <c r="A60" s="189"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D60" s="89">
         <v>48</v>
       </c>
-      <c r="E60" s="110" t="s">
+      <c r="E60" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="89">
@@ -23705,7 +23773,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="89">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I60" s="89" t="s">
         <v>72</v>
@@ -23726,7 +23794,7 @@
         <v>50</v>
       </c>
       <c r="O60" s="89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60" s="89">
         <v>2</v>
@@ -23756,7 +23824,7 @@
         <v>50</v>
       </c>
       <c r="Y60" s="89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z60" s="89" t="s">
         <v>162</v>
@@ -23774,22 +23842,22 @@
         <v>62</v>
       </c>
       <c r="AE60" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF60" s="157"/>
+        <v>157</v>
+      </c>
+      <c r="AF60" s="183"/>
       <c r="AG60" s="89">
         <v>1</v>
       </c>
       <c r="AH60" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI60" s="157"/>
-      <c r="AJ60" s="157"/>
+      <c r="AI60" s="183"/>
+      <c r="AJ60" s="183"/>
       <c r="AK60" s="91" t="s">
         <v>252</v>
       </c>
       <c r="AL60" s="89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM60" s="89" t="s">
         <v>188</v>
@@ -23801,22 +23869,22 @@
         <v>66</v>
       </c>
       <c r="AP60" s="93">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AQ60" s="93">
-        <v>1600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A61" s="174"/>
-      <c r="B61" s="187"/>
+      <c r="A61" s="189"/>
+      <c r="B61" s="174"/>
       <c r="C61" s="88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D61" s="89">
         <v>48</v>
       </c>
-      <c r="E61" s="110" t="s">
+      <c r="E61" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="89">
@@ -23826,7 +23894,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="89">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I61" s="89" t="s">
         <v>72</v>
@@ -23847,7 +23915,7 @@
         <v>50</v>
       </c>
       <c r="O61" s="89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61" s="89">
         <v>2</v>
@@ -23877,7 +23945,7 @@
         <v>50</v>
       </c>
       <c r="Y61" s="89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z61" s="89" t="s">
         <v>162</v>
@@ -23895,28 +23963,28 @@
         <v>62</v>
       </c>
       <c r="AE61" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF61" s="157"/>
+        <v>50</v>
+      </c>
+      <c r="AF61" s="183"/>
       <c r="AG61" s="89">
         <v>1</v>
       </c>
       <c r="AH61" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI61" s="157"/>
-      <c r="AJ61" s="157"/>
+      <c r="AI61" s="183"/>
+      <c r="AJ61" s="183"/>
       <c r="AK61" s="91" t="s">
         <v>252</v>
       </c>
       <c r="AL61" s="89" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AM61" s="89" t="s">
         <v>188</v>
       </c>
       <c r="AN61" s="89" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AO61" s="92" t="s">
         <v>66</v>
@@ -23929,15 +23997,15 @@
       </c>
     </row>
     <row r="62" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A62" s="174"/>
-      <c r="B62" s="187"/>
+      <c r="A62" s="189"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D62" s="89">
         <v>48</v>
       </c>
-      <c r="E62" s="110" t="s">
+      <c r="E62" s="108" t="s">
         <v>42</v>
       </c>
       <c r="F62" s="89">
@@ -23947,7 +24015,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="89">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I62" s="89" t="s">
         <v>72</v>
@@ -23971,13 +24039,13 @@
         <v>2</v>
       </c>
       <c r="P62" s="89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="89">
         <v>2</v>
       </c>
       <c r="R62" s="89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62" s="89" t="s">
         <v>50</v>
@@ -23998,7 +24066,7 @@
         <v>50</v>
       </c>
       <c r="Y62" s="89" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Z62" s="89" t="s">
         <v>162</v>
@@ -24016,293 +24084,299 @@
         <v>62</v>
       </c>
       <c r="AE62" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF62" s="157"/>
+        <v>50</v>
+      </c>
+      <c r="AF62" s="184"/>
       <c r="AG62" s="89">
         <v>1</v>
       </c>
       <c r="AH62" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AI62" s="157"/>
-      <c r="AJ62" s="157"/>
+      <c r="AI62" s="184"/>
+      <c r="AJ62" s="184"/>
       <c r="AK62" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="AL62" s="89" t="s">
-        <v>67</v>
+      <c r="AL62" s="94" t="s">
+        <v>141</v>
       </c>
       <c r="AM62" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN62" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO62" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP62" s="93">
+        <v>5000</v>
+      </c>
+      <c r="AQ62" s="93">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A63" s="189"/>
+      <c r="B63" s="170" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="50">
+        <v>48</v>
+      </c>
+      <c r="E63" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="50">
+        <v>128</v>
+      </c>
+      <c r="G63" s="50">
+        <v>16</v>
+      </c>
+      <c r="H63" s="50">
+        <v>88</v>
+      </c>
+      <c r="I63" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" s="50">
+        <v>7</v>
+      </c>
+      <c r="L63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="50">
+        <v>4</v>
+      </c>
+      <c r="P63" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="50">
+        <v>2</v>
+      </c>
+      <c r="R63" s="50">
+        <v>2</v>
+      </c>
+      <c r="S63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="T63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="V63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="W63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="X63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y63" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z63" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="50">
+        <v>3</v>
+      </c>
+      <c r="AC63" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD63" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE63" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF63" s="185" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI63" s="185" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ63" s="185" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK63" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL63" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM63" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AN62" s="89" t="s">
+      <c r="AN63" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="AO62" s="92" t="s">
+      <c r="AO63" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AP62" s="93">
-        <v>250</v>
-      </c>
-      <c r="AQ62" s="93">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A63" s="174"/>
-      <c r="B63" s="187"/>
-      <c r="C63" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="89">
+      <c r="AP63" s="53">
+        <v>90</v>
+      </c>
+      <c r="AQ63" s="53">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A64" s="189"/>
+      <c r="B64" s="171"/>
+      <c r="C64" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="50">
         <v>48</v>
       </c>
-      <c r="E63" s="110" t="s">
+      <c r="E64" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="89">
-        <v>256</v>
-      </c>
-      <c r="G63" s="89">
-        <v>32</v>
-      </c>
-      <c r="H63" s="89">
-        <v>40</v>
-      </c>
-      <c r="I63" s="89" t="s">
+      <c r="F64" s="50">
+        <v>128</v>
+      </c>
+      <c r="G64" s="50">
+        <v>16</v>
+      </c>
+      <c r="H64" s="50">
         <v>72</v>
       </c>
-      <c r="J63" s="89" t="s">
+      <c r="I64" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="K63" s="89">
+      <c r="K64" s="50">
         <v>7</v>
       </c>
-      <c r="L63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="O63" s="89">
-        <v>2</v>
-      </c>
-      <c r="P63" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="89">
-        <v>2</v>
-      </c>
-      <c r="R63" s="89">
-        <v>2</v>
-      </c>
-      <c r="S63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="T63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="U63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="V63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="W63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="X63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y63" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z63" s="89" t="s">
+      <c r="L64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="50">
+        <v>4</v>
+      </c>
+      <c r="P64" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="50">
+        <v>2</v>
+      </c>
+      <c r="R64" s="50">
+        <v>2</v>
+      </c>
+      <c r="S64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="T64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="U64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="W64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="X64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z64" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="AA63" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="89">
+      <c r="AA64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="50">
         <v>3</v>
       </c>
-      <c r="AC63" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD63" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF63" s="157"/>
-      <c r="AG63" s="89">
-        <v>1</v>
-      </c>
-      <c r="AH63" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI63" s="157"/>
-      <c r="AJ63" s="157"/>
-      <c r="AK63" s="91" t="s">
+      <c r="AC64" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD64" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE64" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF64" s="186"/>
+      <c r="AG64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI64" s="186"/>
+      <c r="AJ64" s="186"/>
+      <c r="AK64" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="AL63" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM63" s="89" t="s">
+      <c r="AL64" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM64" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AN63" s="89" t="s">
+      <c r="AN64" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="AO63" s="92" t="s">
+      <c r="AO64" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AP63" s="93">
-        <v>250</v>
-      </c>
-      <c r="AQ63" s="93">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A64" s="174"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="89">
-        <v>48</v>
-      </c>
-      <c r="E64" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="89">
-        <v>256</v>
-      </c>
-      <c r="G64" s="89">
-        <v>32</v>
-      </c>
-      <c r="H64" s="89">
-        <v>26</v>
-      </c>
-      <c r="I64" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="J64" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="K64" s="89">
-        <v>7</v>
-      </c>
-      <c r="L64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="M64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="N64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="O64" s="89">
-        <v>2</v>
-      </c>
-      <c r="P64" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="89">
-        <v>2</v>
-      </c>
-      <c r="R64" s="89">
-        <v>1</v>
-      </c>
-      <c r="S64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="T64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="U64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="V64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="W64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="X64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y64" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z64" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA64" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC64" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD64" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF64" s="158"/>
-      <c r="AG64" s="89">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI64" s="158"/>
-      <c r="AJ64" s="158"/>
-      <c r="AK64" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL64" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM64" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN64" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO64" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP64" s="93">
-        <v>5000</v>
-      </c>
-      <c r="AQ64" s="93">
-        <v>5000</v>
+      <c r="AP64" s="53">
+        <v>119</v>
+      </c>
+      <c r="AQ64" s="53">
+        <v>1190</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A65" s="174"/>
-      <c r="B65" s="177" t="s">
-        <v>217</v>
-      </c>
+      <c r="A65" s="189"/>
+      <c r="B65" s="171"/>
       <c r="C65" s="49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D65" s="50">
         <v>48</v>
       </c>
-      <c r="E65" s="109" t="s">
+      <c r="E65" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F65" s="50">
@@ -24312,7 +24386,7 @@
         <v>16</v>
       </c>
       <c r="H65" s="50">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I65" s="50" t="s">
         <v>72</v>
@@ -24363,7 +24437,7 @@
         <v>50</v>
       </c>
       <c r="Y65" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z65" s="50" t="s">
         <v>162</v>
@@ -24381,28 +24455,22 @@
         <v>62</v>
       </c>
       <c r="AE65" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF65" s="150" t="s">
-        <v>219</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AF65" s="186"/>
       <c r="AG65" s="50">
         <v>1</v>
       </c>
       <c r="AH65" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI65" s="150" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ65" s="150" t="s">
-        <v>300</v>
-      </c>
+      <c r="AI65" s="186"/>
+      <c r="AJ65" s="186"/>
       <c r="AK65" s="51" t="s">
         <v>252</v>
       </c>
       <c r="AL65" s="50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM65" s="50" t="s">
         <v>188</v>
@@ -24414,22 +24482,22 @@
         <v>66</v>
       </c>
       <c r="AP65" s="53">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AQ65" s="53">
-        <v>900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="66" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A66" s="174"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="189"/>
+      <c r="B66" s="171"/>
       <c r="C66" s="49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D66" s="50">
         <v>48</v>
       </c>
-      <c r="E66" s="109" t="s">
+      <c r="E66" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F66" s="50">
@@ -24439,7 +24507,7 @@
         <v>16</v>
       </c>
       <c r="H66" s="50">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I66" s="50" t="s">
         <v>72</v>
@@ -24508,49 +24576,49 @@
         <v>62</v>
       </c>
       <c r="AE66" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF66" s="151"/>
+        <v>156</v>
+      </c>
+      <c r="AF66" s="186"/>
       <c r="AG66" s="50">
         <v>1</v>
       </c>
       <c r="AH66" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI66" s="151"/>
-      <c r="AJ66" s="151"/>
+      <c r="AI66" s="186"/>
+      <c r="AJ66" s="186"/>
       <c r="AK66" s="51" t="s">
         <v>252</v>
       </c>
       <c r="AL66" s="50" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="AM66" s="50" t="s">
         <v>188</v>
       </c>
       <c r="AN66" s="50" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO66" s="52" t="s">
         <v>66</v>
       </c>
       <c r="AP66" s="53">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="AQ66" s="53">
-        <v>1190</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="67" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A67" s="174"/>
-      <c r="B67" s="178"/>
+      <c r="A67" s="189"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D67" s="50">
         <v>48</v>
       </c>
-      <c r="E67" s="109" t="s">
+      <c r="E67" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="50">
@@ -24560,7 +24628,7 @@
         <v>16</v>
       </c>
       <c r="H67" s="50">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I67" s="50" t="s">
         <v>72</v>
@@ -24581,7 +24649,7 @@
         <v>50</v>
       </c>
       <c r="O67" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67" s="50">
         <v>2</v>
@@ -24611,7 +24679,7 @@
         <v>50</v>
       </c>
       <c r="Y67" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z67" s="50" t="s">
         <v>162</v>
@@ -24629,22 +24697,22 @@
         <v>62</v>
       </c>
       <c r="AE67" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF67" s="151"/>
+        <v>157</v>
+      </c>
+      <c r="AF67" s="186"/>
       <c r="AG67" s="50">
         <v>1</v>
       </c>
       <c r="AH67" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI67" s="151"/>
-      <c r="AJ67" s="151"/>
+      <c r="AI67" s="186"/>
+      <c r="AJ67" s="186"/>
       <c r="AK67" s="51" t="s">
         <v>252</v>
       </c>
       <c r="AL67" s="50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM67" s="50" t="s">
         <v>188</v>
@@ -24656,22 +24724,22 @@
         <v>66</v>
       </c>
       <c r="AP67" s="53">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AQ67" s="53">
-        <v>1600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="68" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A68" s="174"/>
-      <c r="B68" s="178"/>
+      <c r="A68" s="189"/>
+      <c r="B68" s="171"/>
       <c r="C68" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" s="50">
         <v>48</v>
       </c>
-      <c r="E68" s="109" t="s">
+      <c r="E68" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F68" s="50">
@@ -24681,7 +24749,7 @@
         <v>16</v>
       </c>
       <c r="H68" s="50">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I68" s="50" t="s">
         <v>72</v>
@@ -24702,7 +24770,7 @@
         <v>50</v>
       </c>
       <c r="O68" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P68" s="50">
         <v>2</v>
@@ -24732,7 +24800,7 @@
         <v>50</v>
       </c>
       <c r="Y68" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z68" s="50" t="s">
         <v>162</v>
@@ -24750,28 +24818,28 @@
         <v>62</v>
       </c>
       <c r="AE68" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF68" s="151"/>
+        <v>50</v>
+      </c>
+      <c r="AF68" s="186"/>
       <c r="AG68" s="50">
         <v>1</v>
       </c>
       <c r="AH68" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI68" s="151"/>
-      <c r="AJ68" s="151"/>
+      <c r="AI68" s="186"/>
+      <c r="AJ68" s="186"/>
       <c r="AK68" s="51" t="s">
         <v>252</v>
       </c>
       <c r="AL68" s="50" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AM68" s="50" t="s">
         <v>188</v>
       </c>
       <c r="AN68" s="50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AO68" s="52" t="s">
         <v>66</v>
@@ -24784,15 +24852,15 @@
       </c>
     </row>
     <row r="69" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A69" s="174"/>
-      <c r="B69" s="178"/>
+      <c r="A69" s="189"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="50">
         <v>48</v>
       </c>
-      <c r="E69" s="109" t="s">
+      <c r="E69" s="107" t="s">
         <v>42</v>
       </c>
       <c r="F69" s="50">
@@ -24802,7 +24870,7 @@
         <v>16</v>
       </c>
       <c r="H69" s="50">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I69" s="50" t="s">
         <v>72</v>
@@ -24826,13 +24894,13 @@
         <v>2</v>
       </c>
       <c r="P69" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="50">
         <v>2</v>
       </c>
       <c r="R69" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69" s="50" t="s">
         <v>50</v>
@@ -24853,7 +24921,7 @@
         <v>50</v>
       </c>
       <c r="Y69" s="50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Z69" s="50" t="s">
         <v>162</v>
@@ -24871,293 +24939,299 @@
         <v>62</v>
       </c>
       <c r="AE69" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF69" s="151"/>
+        <v>50</v>
+      </c>
+      <c r="AF69" s="187"/>
       <c r="AG69" s="50">
         <v>1</v>
       </c>
       <c r="AH69" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI69" s="151"/>
-      <c r="AJ69" s="151"/>
+      <c r="AI69" s="187"/>
+      <c r="AJ69" s="187"/>
       <c r="AK69" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="AL69" s="50" t="s">
-        <v>67</v>
+      <c r="AL69" s="96" t="s">
+        <v>141</v>
       </c>
       <c r="AM69" s="50" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="AN69" s="50" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO69" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP69" s="53">
+        <v>5000</v>
+      </c>
+      <c r="AQ69" s="53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A70" s="189"/>
+      <c r="B70" s="193" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="98">
+        <v>168</v>
+      </c>
+      <c r="E70" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="98">
+        <v>512</v>
+      </c>
+      <c r="G70" s="98">
+        <v>192</v>
+      </c>
+      <c r="H70" s="98">
+        <v>38</v>
+      </c>
+      <c r="I70" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="98">
+        <v>14</v>
+      </c>
+      <c r="L70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O70" s="98">
+        <v>4</v>
+      </c>
+      <c r="P70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q70" s="98">
+        <v>3</v>
+      </c>
+      <c r="R70" s="99">
+        <v>4</v>
+      </c>
+      <c r="S70" s="98">
+        <v>1</v>
+      </c>
+      <c r="T70" s="152" t="s">
+        <v>257</v>
+      </c>
+      <c r="U70" s="98">
+        <v>1</v>
+      </c>
+      <c r="V70" s="98">
+        <v>4</v>
+      </c>
+      <c r="W70" s="98">
+        <v>2</v>
+      </c>
+      <c r="X70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y70" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA70" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="98">
+        <v>3</v>
+      </c>
+      <c r="AC70" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD70" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF70" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG70" s="98">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI70" s="152" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ70" s="152" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK70" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL70" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM70" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN70" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO70" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP70" s="103">
+        <v>3000</v>
+      </c>
+      <c r="AQ70" s="103">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A71" s="189"/>
+      <c r="B71" s="193"/>
+      <c r="C71" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" s="98">
+        <v>168</v>
+      </c>
+      <c r="E71" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="98">
+        <v>256</v>
+      </c>
+      <c r="G71" s="98">
+        <v>192</v>
+      </c>
+      <c r="H71" s="98">
+        <v>38</v>
+      </c>
+      <c r="I71" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" s="98">
+        <v>14</v>
+      </c>
+      <c r="L71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O71" s="98">
+        <v>4</v>
+      </c>
+      <c r="P71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="98">
+        <v>3</v>
+      </c>
+      <c r="R71" s="120">
+        <v>4</v>
+      </c>
+      <c r="S71" s="98">
+        <v>1</v>
+      </c>
+      <c r="T71" s="153"/>
+      <c r="U71" s="98">
+        <v>1</v>
+      </c>
+      <c r="V71" s="98">
+        <v>4</v>
+      </c>
+      <c r="W71" s="98">
+        <v>2</v>
+      </c>
+      <c r="X71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y71" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA71" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="98">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD71" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE71" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF71" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG71" s="98">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI71" s="153"/>
+      <c r="AJ71" s="153"/>
+      <c r="AK71" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL71" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM71" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN71" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO71" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AP69" s="53">
+      <c r="AP71" s="103">
         <v>250</v>
       </c>
-      <c r="AQ69" s="53">
+      <c r="AQ71" s="103">
         <v>2500</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A70" s="174"/>
-      <c r="B70" s="178"/>
-      <c r="C70" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="50">
-        <v>48</v>
-      </c>
-      <c r="E70" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="50">
-        <v>128</v>
-      </c>
-      <c r="G70" s="50">
-        <v>16</v>
-      </c>
-      <c r="H70" s="50">
-        <v>40</v>
-      </c>
-      <c r="I70" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="J70" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="K70" s="50">
-        <v>7</v>
-      </c>
-      <c r="L70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O70" s="50">
-        <v>2</v>
-      </c>
-      <c r="P70" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="50">
-        <v>2</v>
-      </c>
-      <c r="R70" s="50">
-        <v>2</v>
-      </c>
-      <c r="S70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="T70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="U70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="W70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="X70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y70" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z70" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA70" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="50">
-        <v>3</v>
-      </c>
-      <c r="AC70" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD70" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF70" s="151"/>
-      <c r="AG70" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI70" s="151"/>
-      <c r="AJ70" s="151"/>
-      <c r="AK70" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL70" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM70" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN70" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO70" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP70" s="53">
-        <v>250</v>
-      </c>
-      <c r="AQ70" s="53">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A71" s="174"/>
-      <c r="B71" s="179"/>
-      <c r="C71" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="50">
-        <v>48</v>
-      </c>
-      <c r="E71" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="50">
-        <v>128</v>
-      </c>
-      <c r="G71" s="50">
-        <v>16</v>
-      </c>
-      <c r="H71" s="50">
-        <v>26</v>
-      </c>
-      <c r="I71" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="J71" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="K71" s="50">
-        <v>7</v>
-      </c>
-      <c r="L71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O71" s="50">
-        <v>2</v>
-      </c>
-      <c r="P71" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="50">
-        <v>2</v>
-      </c>
-      <c r="R71" s="50">
-        <v>1</v>
-      </c>
-      <c r="S71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="T71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="U71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="W71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="X71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y71" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z71" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA71" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="50">
-        <v>3</v>
-      </c>
-      <c r="AC71" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD71" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF71" s="152"/>
-      <c r="AG71" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI71" s="152"/>
-      <c r="AJ71" s="152"/>
-      <c r="AK71" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL71" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM71" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN71" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO71" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP71" s="53">
-        <v>5000</v>
-      </c>
-      <c r="AQ71" s="53">
-        <v>5000</v>
-      </c>
-    </row>
     <row r="72" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A72" s="174"/>
-      <c r="B72" s="185" t="s">
-        <v>296</v>
-      </c>
+      <c r="A72" s="189"/>
+      <c r="B72" s="193"/>
       <c r="C72" s="97" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="D72" s="98">
         <v>168</v>
       </c>
-      <c r="E72" s="117" t="s">
+      <c r="E72" s="115" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="98">
@@ -25202,9 +25276,7 @@
       <c r="S72" s="98">
         <v>1</v>
       </c>
-      <c r="T72" s="144" t="s">
-        <v>257</v>
-      </c>
+      <c r="T72" s="153"/>
       <c r="U72" s="98">
         <v>1</v>
       </c>
@@ -25247,45 +25319,41 @@
       <c r="AH72" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI72" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ72" s="144" t="s">
-        <v>277</v>
-      </c>
+      <c r="AI72" s="153"/>
+      <c r="AJ72" s="153"/>
       <c r="AK72" s="101" t="s">
         <v>252</v>
       </c>
       <c r="AL72" s="98" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="AM72" s="98" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="AN72" s="98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO72" s="102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AP72" s="103">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="AQ72" s="103">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="73" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A73" s="174"/>
-      <c r="B73" s="185"/>
+      <c r="A73" s="189"/>
+      <c r="B73" s="193"/>
       <c r="C73" s="97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" s="98">
         <v>168</v>
       </c>
-      <c r="E73" s="117" t="s">
-        <v>45</v>
+      <c r="E73" s="115" t="s">
+        <v>44</v>
       </c>
       <c r="F73" s="98">
         <v>512</v>
@@ -25294,7 +25362,7 @@
         <v>192</v>
       </c>
       <c r="H73" s="98">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I73" s="98" t="s">
         <v>75</v>
@@ -25329,7 +25397,7 @@
       <c r="S73" s="98">
         <v>1</v>
       </c>
-      <c r="T73" s="145"/>
+      <c r="T73" s="153"/>
       <c r="U73" s="98">
         <v>1</v>
       </c>
@@ -25343,7 +25411,7 @@
         <v>50</v>
       </c>
       <c r="Y73" s="100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z73" s="98" t="s">
         <v>50</v>
@@ -25372,50 +25440,50 @@
       <c r="AH73" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI73" s="145"/>
-      <c r="AJ73" s="145"/>
+      <c r="AI73" s="153"/>
+      <c r="AJ73" s="153"/>
       <c r="AK73" s="101" t="s">
         <v>252</v>
       </c>
       <c r="AL73" s="98" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="AM73" s="98" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="AN73" s="98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO73" s="102" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AP73" s="103">
-        <v>250</v>
+        <v>3000</v>
       </c>
       <c r="AQ73" s="103">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A74" s="174"/>
-      <c r="B74" s="185"/>
+      <c r="A74" s="189"/>
+      <c r="B74" s="193"/>
       <c r="C74" s="97" t="s">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="D74" s="98">
         <v>168</v>
       </c>
-      <c r="E74" s="117" t="s">
+      <c r="E74" s="115" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="98">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="G74" s="98">
         <v>192</v>
       </c>
       <c r="H74" s="98">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I74" s="98" t="s">
         <v>75</v>
@@ -25444,13 +25512,13 @@
       <c r="Q74" s="98">
         <v>3</v>
       </c>
-      <c r="R74" s="99">
+      <c r="R74" s="120">
         <v>4</v>
       </c>
       <c r="S74" s="98">
         <v>1</v>
       </c>
-      <c r="T74" s="145"/>
+      <c r="T74" s="153"/>
       <c r="U74" s="98">
         <v>1</v>
       </c>
@@ -25464,7 +25532,7 @@
         <v>50</v>
       </c>
       <c r="Y74" s="100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z74" s="98" t="s">
         <v>50</v>
@@ -25493,40 +25561,40 @@
       <c r="AH74" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI74" s="145"/>
-      <c r="AJ74" s="145"/>
+      <c r="AI74" s="153"/>
+      <c r="AJ74" s="153"/>
       <c r="AK74" s="101" t="s">
         <v>252</v>
       </c>
       <c r="AL74" s="98" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="AM74" s="98" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="AN74" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO74" s="102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AP74" s="103">
-        <v>3000</v>
+        <v>160</v>
       </c>
       <c r="AQ74" s="103">
-        <v>3000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="75" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="174"/>
-      <c r="B75" s="185"/>
+      <c r="A75" s="189"/>
+      <c r="B75" s="193"/>
       <c r="C75" s="97" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="98">
         <v>168</v>
       </c>
-      <c r="E75" s="117" t="s">
+      <c r="E75" s="115" t="s">
         <v>44</v>
       </c>
       <c r="F75" s="98">
@@ -25571,7 +25639,7 @@
       <c r="S75" s="98">
         <v>1</v>
       </c>
-      <c r="T75" s="145"/>
+      <c r="T75" s="153"/>
       <c r="U75" s="98">
         <v>1</v>
       </c>
@@ -25614,8 +25682,8 @@
       <c r="AH75" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI75" s="145"/>
-      <c r="AJ75" s="145"/>
+      <c r="AI75" s="153"/>
+      <c r="AJ75" s="153"/>
       <c r="AK75" s="101" t="s">
         <v>252</v>
       </c>
@@ -25639,15 +25707,15 @@
       </c>
     </row>
     <row r="76" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A76" s="174"/>
-      <c r="B76" s="185"/>
+      <c r="A76" s="189"/>
+      <c r="B76" s="193"/>
       <c r="C76" s="102" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="D76" s="98">
         <v>168</v>
       </c>
-      <c r="E76" s="117" t="s">
+      <c r="E76" s="115" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="98">
@@ -25692,7 +25760,7 @@
       <c r="S76" s="98">
         <v>1</v>
       </c>
-      <c r="T76" s="146"/>
+      <c r="T76" s="153"/>
       <c r="U76" s="98">
         <v>1</v>
       </c>
@@ -25735,16 +25803,16 @@
       <c r="AH76" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI76" s="146"/>
-      <c r="AJ76" s="146"/>
+      <c r="AI76" s="153"/>
+      <c r="AJ76" s="153"/>
       <c r="AK76" s="101" t="s">
         <v>251</v>
       </c>
       <c r="AL76" s="98" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AM76" s="98" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="AN76" s="98" t="s">
         <v>265</v>
@@ -25759,280 +25827,272 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A77" s="192" t="s">
+    <row r="77" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A77" s="189"/>
+      <c r="B77" s="193"/>
+      <c r="C77" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="98">
+        <v>168</v>
+      </c>
+      <c r="E77" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="98">
+        <v>256</v>
+      </c>
+      <c r="G77" s="98">
+        <v>192</v>
+      </c>
+      <c r="H77" s="98">
+        <v>83</v>
+      </c>
+      <c r="I77" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="K77" s="98">
+        <v>14</v>
+      </c>
+      <c r="L77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O77" s="98">
+        <v>4</v>
+      </c>
+      <c r="P77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q77" s="98">
+        <v>3</v>
+      </c>
+      <c r="R77" s="98">
+        <v>4</v>
+      </c>
+      <c r="S77" s="98">
+        <v>1</v>
+      </c>
+      <c r="T77" s="153"/>
+      <c r="U77" s="98">
+        <v>1</v>
+      </c>
+      <c r="V77" s="98">
+        <v>4</v>
+      </c>
+      <c r="W77" s="98">
+        <v>2</v>
+      </c>
+      <c r="X77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y77" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA77" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="98">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD77" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE77" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF77" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG77" s="98">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI77" s="153"/>
+      <c r="AJ77" s="153"/>
+      <c r="AK77" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL77" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM77" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN77" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO77" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP77" s="103">
+        <v>90</v>
+      </c>
+      <c r="AQ77" s="103">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" ht="15" customHeight="1" thickBot="1">
+      <c r="A78" s="189"/>
+      <c r="B78" s="193"/>
+      <c r="C78" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="98">
+        <v>168</v>
+      </c>
+      <c r="E78" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="98">
+        <v>512</v>
+      </c>
+      <c r="G78" s="98">
+        <v>192</v>
+      </c>
+      <c r="H78" s="98">
+        <v>83</v>
+      </c>
+      <c r="I78" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J78" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="K78" s="98">
+        <v>14</v>
+      </c>
+      <c r="L78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="N78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" s="98">
+        <v>4</v>
+      </c>
+      <c r="P78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q78" s="98">
+        <v>3</v>
+      </c>
+      <c r="R78" s="98">
+        <v>4</v>
+      </c>
+      <c r="S78" s="98">
+        <v>1</v>
+      </c>
+      <c r="T78" s="154"/>
+      <c r="U78" s="98">
+        <v>1</v>
+      </c>
+      <c r="V78" s="98">
+        <v>4</v>
+      </c>
+      <c r="W78" s="98">
+        <v>2</v>
+      </c>
+      <c r="X78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y78" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA78" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="98">
+        <v>3</v>
+      </c>
+      <c r="AC78" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD78" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE78" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF78" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG78" s="98">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI78" s="154"/>
+      <c r="AJ78" s="154"/>
+      <c r="AK78" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL78" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM78" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN78" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO78" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP78" s="103">
+        <v>90</v>
+      </c>
+      <c r="AQ78" s="103">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A79" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="B77" s="172" t="s">
+      <c r="B79" s="146" t="s">
         <v>297</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C79" s="61" t="s">
         <v>153</v>
-      </c>
-      <c r="D77" s="62">
-        <v>48</v>
-      </c>
-      <c r="E77" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77" s="62">
-        <v>128</v>
-      </c>
-      <c r="G77" s="62">
-        <v>8</v>
-      </c>
-      <c r="H77" s="62">
-        <v>55</v>
-      </c>
-      <c r="I77" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="J77" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="K77" s="62">
-        <v>5</v>
-      </c>
-      <c r="L77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="M77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="N77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="O77" s="62">
-        <v>4</v>
-      </c>
-      <c r="P77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q77" s="62">
-        <v>4</v>
-      </c>
-      <c r="R77" s="62">
-        <v>4</v>
-      </c>
-      <c r="S77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="T77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="U77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="V77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="W77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="X77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y77" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA77" s="62">
-        <v>2</v>
-      </c>
-      <c r="AB77" s="118">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD77" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH77" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI77" s="172" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ77" s="172" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK77" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL77" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM77" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN77" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO77" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP77" s="67">
-        <v>250</v>
-      </c>
-      <c r="AQ77" s="67">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A78" s="193"/>
-      <c r="B78" s="148"/>
-      <c r="C78" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="62">
-        <v>48</v>
-      </c>
-      <c r="E78" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="62">
-        <v>64</v>
-      </c>
-      <c r="G78" s="62">
-        <v>8</v>
-      </c>
-      <c r="H78" s="62">
-        <v>41</v>
-      </c>
-      <c r="I78" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="J78" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="K78" s="62">
-        <v>5</v>
-      </c>
-      <c r="L78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="M78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="N78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78" s="62">
-        <v>4</v>
-      </c>
-      <c r="P78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q78" s="62">
-        <v>4</v>
-      </c>
-      <c r="R78" s="62">
-        <v>4</v>
-      </c>
-      <c r="S78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="T78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="U78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="V78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="W78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="X78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y78" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA78" s="62">
-        <v>2</v>
-      </c>
-      <c r="AB78" s="118">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD78" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH78" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI78" s="148"/>
-      <c r="AJ78" s="148"/>
-      <c r="AK78" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL78" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM78" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN78" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO78" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP78" s="67">
-        <v>250</v>
-      </c>
-      <c r="AQ78" s="67">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A79" s="193"/>
-      <c r="B79" s="148"/>
-      <c r="C79" s="61" t="s">
-        <v>285</v>
       </c>
       <c r="D79" s="62">
         <v>48</v>
       </c>
-      <c r="E79" s="112" t="s">
+      <c r="E79" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="62">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G79" s="62">
         <v>8</v>
       </c>
       <c r="H79" s="62">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I79" s="62" t="s">
         <v>73</v>
@@ -26091,13 +26151,13 @@
       <c r="AA79" s="62">
         <v>2</v>
       </c>
-      <c r="AB79" s="62">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD79" s="62" t="s">
+      <c r="AB79" s="116">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD79" s="116" t="s">
         <v>62</v>
       </c>
       <c r="AE79" s="62" t="s">
@@ -26112,40 +26172,44 @@
       <c r="AH79" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI79" s="148"/>
-      <c r="AJ79" s="148"/>
+      <c r="AI79" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ79" s="146" t="s">
+        <v>276</v>
+      </c>
       <c r="AK79" s="65" t="s">
         <v>252</v>
       </c>
       <c r="AL79" s="62" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="AM79" s="62" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AN79" s="62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AO79" s="66" t="s">
         <v>66</v>
       </c>
       <c r="AP79" s="67">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AQ79" s="67">
-        <v>2600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="80" spans="1:43" ht="17.25" thickBot="1">
-      <c r="A80" s="193"/>
-      <c r="B80" s="149"/>
+      <c r="A80" s="150"/>
+      <c r="B80" s="147"/>
       <c r="C80" s="61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80" s="62">
         <v>48</v>
       </c>
-      <c r="E80" s="112" t="s">
+      <c r="E80" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="62">
@@ -26155,7 +26219,7 @@
         <v>8</v>
       </c>
       <c r="H80" s="62">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I80" s="62" t="s">
         <v>73</v>
@@ -26206,7 +26270,7 @@
         <v>50</v>
       </c>
       <c r="Y80" s="62" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="Z80" s="62" t="s">
         <v>50</v>
@@ -26214,13 +26278,13 @@
       <c r="AA80" s="62">
         <v>2</v>
       </c>
-      <c r="AB80" s="62">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD80" s="62" t="s">
+      <c r="AB80" s="116">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD80" s="116" t="s">
         <v>62</v>
       </c>
       <c r="AE80" s="62" t="s">
@@ -26235,19 +26299,19 @@
       <c r="AH80" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AI80" s="149"/>
-      <c r="AJ80" s="149"/>
+      <c r="AI80" s="147"/>
+      <c r="AJ80" s="147"/>
       <c r="AK80" s="65" t="s">
         <v>252</v>
       </c>
       <c r="AL80" s="62" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="AM80" s="62" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="AN80" s="62" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="AO80" s="66" t="s">
         <v>66</v>
@@ -26256,115 +26320,347 @@
         <v>250</v>
       </c>
       <c r="AQ80" s="67">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A81" s="150"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="62">
+        <v>48</v>
+      </c>
+      <c r="E81" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="62">
+        <v>64</v>
+      </c>
+      <c r="G81" s="62">
+        <v>8</v>
+      </c>
+      <c r="H81" s="62">
+        <v>41</v>
+      </c>
+      <c r="I81" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="K81" s="62">
+        <v>5</v>
+      </c>
+      <c r="L81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="M81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="N81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="O81" s="62">
+        <v>4</v>
+      </c>
+      <c r="P81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q81" s="62">
+        <v>4</v>
+      </c>
+      <c r="R81" s="62">
+        <v>4</v>
+      </c>
+      <c r="S81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="U81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="V81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="W81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="X81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y81" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA81" s="62">
+        <v>2</v>
+      </c>
+      <c r="AB81" s="62">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD81" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH81" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI81" s="147"/>
+      <c r="AJ81" s="147"/>
+      <c r="AK81" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL81" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM81" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN81" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO81" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP81" s="67">
+        <v>260</v>
+      </c>
+      <c r="AQ81" s="67">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" ht="17.25" thickBot="1">
+      <c r="A82" s="150"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="62">
+        <v>48</v>
+      </c>
+      <c r="E82" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="62">
+        <v>64</v>
+      </c>
+      <c r="G82" s="62">
+        <v>8</v>
+      </c>
+      <c r="H82" s="62">
+        <v>26</v>
+      </c>
+      <c r="I82" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" s="62">
+        <v>5</v>
+      </c>
+      <c r="L82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="M82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="O82" s="62">
+        <v>4</v>
+      </c>
+      <c r="P82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q82" s="62">
+        <v>4</v>
+      </c>
+      <c r="R82" s="62">
+        <v>4</v>
+      </c>
+      <c r="S82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="V82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="W82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="X82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y82" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA82" s="62">
+        <v>2</v>
+      </c>
+      <c r="AB82" s="62">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD82" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH82" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI82" s="148"/>
+      <c r="AJ82" s="148"/>
+      <c r="AK82" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL82" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM82" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN82" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO82" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP82" s="67">
+        <v>250</v>
+      </c>
+      <c r="AQ82" s="67">
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="4:8">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="4:8">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="4:8">
+    <row r="83" spans="1:43">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="4:8">
+    <row r="84" spans="1:43">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="4:8">
+    <row r="85" spans="1:43">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="4:8">
+    <row r="86" spans="1:43">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="4:8">
+    <row r="87" spans="1:43">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="4:8">
+    <row r="88" spans="1:43">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="4:8">
+    <row r="89" spans="1:43">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="4:8">
+    <row r="90" spans="1:43">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="4:8">
+    <row r="91" spans="1:43">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="4:8">
+    <row r="92" spans="1:43">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="4:8">
+    <row r="93" spans="1:43">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="4:8">
+    <row r="94" spans="1:43">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="4:8">
+    <row r="95" spans="1:43">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="4:8">
+    <row r="96" spans="1:43">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -26483,112 +26779,118 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="4:8">
+    <row r="113" spans="3:8">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="4:8">
-      <c r="D114" s="4"/>
+    <row r="114" spans="3:8">
+      <c r="C114" s="117"/>
+      <c r="D114" s="117"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="4:8">
-      <c r="D115" s="4"/>
+    <row r="115" spans="3:8">
+      <c r="C115" s="119"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="4:8">
-      <c r="D116" s="4"/>
+    <row r="116" spans="3:8">
+      <c r="C116" s="119"/>
+      <c r="D116" s="118"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="4:8">
-      <c r="D117" s="4"/>
+    <row r="117" spans="3:8">
+      <c r="C117" s="119"/>
+      <c r="D117" s="118"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="4:8">
-      <c r="D118" s="4"/>
+    <row r="118" spans="3:8">
+      <c r="C118" s="119"/>
+      <c r="D118" s="118"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="4:8">
-      <c r="D119" s="4"/>
+    <row r="119" spans="3:8">
+      <c r="C119" s="119"/>
+      <c r="D119" s="118"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="4:8">
+    <row r="120" spans="3:8">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="4:8">
+    <row r="121" spans="3:8">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="4:8">
+    <row r="122" spans="3:8">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="4:8">
+    <row r="123" spans="3:8">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="4:8">
+    <row r="124" spans="3:8">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="4:8">
+    <row r="125" spans="3:8">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="4:8">
+    <row r="126" spans="3:8">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="4:8">
+    <row r="127" spans="3:8">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="4:8">
+    <row r="128" spans="3:8">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -26959,28 +27261,62 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
+    <row r="181" spans="4:8">
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="4:8">
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JcQLP13qYkp+oiGe7RCioFOfN7s87fYendUOCQ7hg8wH9CvrQMBr3Vj664nTf2m5EXDAxdI7V3iKQu7Rp4dU2w==" saltValue="LhfZJTDeRd7c8Z0qgOYuPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A3:AR80">
+  <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A3:AR82">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="68">
-    <mergeCell ref="AJ77:AJ80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="AI77:AI80"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="T72:T76"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="AF25:AF31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="T32:T37"/>
-    <mergeCell ref="AF32:AF34"/>
-    <mergeCell ref="AF35:AF37"/>
-    <mergeCell ref="AF55:AF57"/>
+    <mergeCell ref="AI70:AI78"/>
+    <mergeCell ref="AI38:AI41"/>
+    <mergeCell ref="AJ38:AJ41"/>
+    <mergeCell ref="AI42:AI45"/>
+    <mergeCell ref="AJ42:AJ45"/>
+    <mergeCell ref="AI53:AI55"/>
+    <mergeCell ref="AI56:AI62"/>
+    <mergeCell ref="AJ56:AJ62"/>
+    <mergeCell ref="AI46:AI52"/>
+    <mergeCell ref="AJ46:AJ52"/>
+    <mergeCell ref="AJ70:AJ78"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI10"/>
+    <mergeCell ref="AJ4:AJ10"/>
+    <mergeCell ref="AJ53:AJ55"/>
+    <mergeCell ref="AI63:AI69"/>
+    <mergeCell ref="AJ63:AJ69"/>
+    <mergeCell ref="AJ32:AJ37"/>
+    <mergeCell ref="AI11:AI17"/>
+    <mergeCell ref="AJ11:AJ17"/>
+    <mergeCell ref="AI18:AI24"/>
+    <mergeCell ref="AJ18:AJ24"/>
+    <mergeCell ref="AI32:AI37"/>
+    <mergeCell ref="AJ25:AJ31"/>
+    <mergeCell ref="AI25:AI31"/>
+    <mergeCell ref="AF56:AF62"/>
+    <mergeCell ref="AF63:AF69"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="A38:A78"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B63:B69"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="A4:A37"/>
@@ -26997,42 +27333,22 @@
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="AF18:AF24"/>
-    <mergeCell ref="AF58:AF64"/>
-    <mergeCell ref="AF65:AF71"/>
-    <mergeCell ref="T55:T57"/>
-    <mergeCell ref="A38:A76"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI10"/>
-    <mergeCell ref="AJ4:AJ10"/>
-    <mergeCell ref="AJ55:AJ57"/>
-    <mergeCell ref="AI65:AI71"/>
-    <mergeCell ref="AJ65:AJ71"/>
-    <mergeCell ref="AJ32:AJ37"/>
-    <mergeCell ref="AI11:AI17"/>
-    <mergeCell ref="AJ11:AJ17"/>
-    <mergeCell ref="AI18:AI24"/>
-    <mergeCell ref="AJ18:AJ24"/>
-    <mergeCell ref="AI32:AI37"/>
-    <mergeCell ref="AJ25:AJ31"/>
-    <mergeCell ref="AI25:AI31"/>
-    <mergeCell ref="AI72:AI76"/>
-    <mergeCell ref="AI38:AI41"/>
-    <mergeCell ref="AJ38:AJ41"/>
-    <mergeCell ref="AI42:AI47"/>
-    <mergeCell ref="AJ42:AJ47"/>
-    <mergeCell ref="AI55:AI57"/>
-    <mergeCell ref="AI58:AI64"/>
-    <mergeCell ref="AJ58:AJ64"/>
-    <mergeCell ref="AI48:AI54"/>
-    <mergeCell ref="AJ48:AJ54"/>
-    <mergeCell ref="AJ72:AJ76"/>
+    <mergeCell ref="AJ79:AJ82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="AI79:AI82"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="T70:T78"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="AF25:AF31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="T32:T37"/>
+    <mergeCell ref="AF32:AF34"/>
+    <mergeCell ref="AF35:AF37"/>
+    <mergeCell ref="AF53:AF55"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
